--- a/src/pt_BR/translation-control.xlsx
+++ b/src/pt_BR/translation-control.xlsx
@@ -19,7 +19,1455 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="525">
+  <si>
+    <t>ref/Tags/resource.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/select.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/set.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/setProvider.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/sortableColumn.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/submitButton.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/submitToRemote.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/textArea.gdoc</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref/Servlet API/request.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Servlet API/response.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Servlet API/servletContext.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Servlet API/session.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/actionName.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/controllerName.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/flash.gdoc</t>
+  </si>
+  <si>
+    <t>Translation Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st Corrector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2st Corrector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st Rev Dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2st Rev Dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/servletContext.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/session.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/actionSubmit.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/actionSubmitImage.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/applyLayout.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/checkBox.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/collect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/cookie.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/country.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/countrySelect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/createLink.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/createLinkTo.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/currencySelect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/datePicker.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/each.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/eachError.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/else.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/elseif.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/external.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/fieldValue.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/findAll.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/form.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/formatBoolean.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/formatDate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/formatNumber.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/formRemote.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/grep.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/hasErrors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/header.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/hiddenField.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/if.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/img.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/include.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/javascript.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/join.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/layoutBody.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/layoutHead.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/layoutTitle.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/link.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/localeSelect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/message.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/meta.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/pageProperty.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/paginate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/passwordField.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/radio.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/radioGroup.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/remoteField.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/remoteFunction.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/remoteLink.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/render.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/renderErrors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrCreateBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrCreateWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrSaveBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrSaveWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/get.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/textField.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/timeZoneSelect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/unless.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/uploadForm.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/while.gdoc</t>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref/Domain Classes/hasMany.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/hasOne.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/ident.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/instanceOf.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/isAttached.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/isDirty.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/list.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/listOrderBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/load.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/lock.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/mappedBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/mapping.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/merge.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/namedQueries.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/properties.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/read.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/refresh.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/removeFrom.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/save.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/transients.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/validate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withCriteria.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withNewSession.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withSession.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withTransaction.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/codecs.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/controllers.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/core.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/dataSource.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/domainClasses.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/filters.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/hibernate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/i18n.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/logging.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/scaffolding.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/services.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/servlets.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/URL mappings.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/web flow.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Services/scope.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Services/transactional.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Services.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/redirect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/render.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/request.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/response.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/servletContext.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/session.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/withForm.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/withFormat.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/pageScope.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/params.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/request.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/response.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/cascade.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/column.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/discriminator.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/dynamicInsert.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/dynamicUpdate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/fetch.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/id.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/ignoreNotFound.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/indexColumn.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/insertable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/joinTable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/lazy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/order.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/sort.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/table.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/type.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/updateable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/version.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/addTo.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/attach.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/belongsTo.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/clearErrors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/constraints.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/count.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/countBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/createCriteria.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/delete.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/discard.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/embedded.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/errors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/executeQuery.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/executeUpdate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/exists.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/fetchMode.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/find.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findAll.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findAllBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findAllWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/install-templates.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/integrate-with.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/interactive.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/list-plugin-updates.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/list-plugins.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/migrate-docs.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/package-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/getAll.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/getDirtyPropertyNames.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/getPersistentValue.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/hasErrors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/run-war.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/schema-export.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/set-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/set-version.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/shell.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/stats.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/test-app.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/uninstall-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/upgrade.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/war.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/attributes.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/blank.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/creditCard.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/email.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/inList.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/matches.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/max.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/maxSize.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/min.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/minSize.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/notEqual.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/nullable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/range.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/scale.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/size.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/unique.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/url.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/validator.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/widget.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/actionName.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/afterInterceptor.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/allowedMethods.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/beforeInterceptor.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/bindData.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/chain.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/controllerName.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/defaultAction.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/flash.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/forward.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/grailsApplication.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/params.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/actionStatesAndViewStates.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/dataBindingAndValidation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/flowExecutionEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/flowScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/startAndEndStates.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/autoImport.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/autoTimestamp.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/batchSize.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/cache.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validationAndInternationalization.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validationNonDomainAndCommandObjectClasses.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validationOnTheClient.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices/REST.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices/RSSAndAtom.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices/SOAP.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/add-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/bootstrap.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/bug-report.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/clean.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/clear-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/compile.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/console.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-app.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-controller.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-domain-class.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-filters.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-hibernate-cfg-xml.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-integration-test.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-scaffold-controller.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-script.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-service.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-tag-lib.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-unit-test.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/dependency-report.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/doc.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/generate-all.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/generate-controller.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/generate-views.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/help.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/init.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/install-dependency.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/install-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/debugging.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/declaringResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/includingResourcesUsingTheResourceTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/optimizingYourResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/otherResourcesPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/package.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/plugin-info.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/remove-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/run-app.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/run-script.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/sitemeshContentBlocks.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/formsAndFields.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/linksAndResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/searchAndFiltering.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/tagLogicAndIteration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/tagsAsMethodCalls.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/tagVariablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/viewsAndTemplates.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/iterativeTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/logicalTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/namespaces.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/simpleTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/taglibVariablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/tagReturnValue.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/usingJSPTagLibraries.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/applyingConstraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/automaticLinkRewriting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/embeddedVariables.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingHTTP.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingToControllersAndActions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingToResponseCodes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingToViews.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingWildcards.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/namedMappings.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/ajaxEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/remoteFormSubmission.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/remotingLinking.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/updatingContent.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxWithDojo.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/subflowsAndConversations.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer.gdoc</t>
+  </si>
+  <si>
+    <t>guide/toc.yml</t>
+  </si>
+  <si>
+    <t>guide/validation/constraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validatingConstraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/commandObjects.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/controllersAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/dataBinding.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/formtokens.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/interceptors.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/modelsAndViews.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/moreOnJSONBuilder.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/redirectsAndChaining.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/typeConverters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/understandingControllersAndActions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/uploadingFiles.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/xmlAndJSON.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/applyingFilters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/filterDependencies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/filterTypes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/filterVariablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/expressions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/logicAndIteration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/pageDirectives.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/variablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPDebugging.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/layouts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/makingChangesToADeployedApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/binaryPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/creatingAndInstallingPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/evaluatingConventions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/hookingIntoBuildEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/hookingIntoRuntimeConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/participatingInAutoReloadEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/providingBasicArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/otherResourceTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/overridingPluginResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/preventingProcessingOfResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/codecs.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securingAgainstAttacks.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securityPlugins/shiro.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securityPlugins/springSecurity.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securityPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/declarativeTransactions/transactionsRollbackAndTheSession.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/declarativeTransactions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/dependencyInjectionServices.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/scopedServices.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/usingServicesFromJava.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/propertyOverrideConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/propertyPlaceholderConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/springdsl.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/springdslAdditional.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/theBeanBuilderDSLExplained.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/theUnderpinningsOfGrails.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/functionalTesting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/integrationTesting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/mockingCollaborators.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingControllers.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingDomains.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingFilters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingTagLibraries.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingURLMappings.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxOnTheServer.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/manyToOneAndOneToOne.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/oneToMany.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormComposition.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/inheritanceInGORM.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/sets,ListsAndMaps.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxWithGWT.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxWithPrototype.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/contentNegotiation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/asynchronousRequestProcessing.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/modificationChecking.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/savingAndUpdating.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/programmaticTransactions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying/criteria.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying/finders.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying/hql.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/quickStartGuide/basicCRUD.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/quickStartGuide.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate/addingConstraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate/mappingWithHibernateAnnotations.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate/usingHibernateXMLMappingFiles.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/changingLocales.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/readingMessages.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/scaffoldingAndI18n.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/understandingMessageBundles.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/coreFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/developmentEnvironmentFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/persistenceFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/testingFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/webFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction.gdoc</t>
+  </si>
+  <si>
+    <t>guide/links.yml</t>
+  </si>
+  <si>
+    <t>guide/plugins/addingDynamicMethodsAtRuntime.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/artefactApi/customArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/artefactApi/queryingArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/artefactApi.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/versioning.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf.gdoc</t>
+  </si>
+  <si>
+    <t>guide/deployment.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/aHelloWorldExample.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/conventionOverConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/creatingAnApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/creatingArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/repositories.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/understandingPluginLoadOrder.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/understandingPluginStructure.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/rewriteRules.txt</t>
+  </si>
+  <si>
+    <t>guide/scaffolding.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/authentication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/testingAnApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/upgradingFromPreviousVersionsOfGrails.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/usingInteractiveMode.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/defaultSortOrder.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/eventsAutoTimestamping.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/caching.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/compositePrimaryKeys.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/customCascadeBehaviour.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/customHibernateTypes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/customNamingStrategy.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/databaseIndices.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/derivedProperties.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/fetchingDSL.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/identity.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/inheritanceStrategies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/optimisticLockingAndVersioning.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/tableAndColumnNames.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/basicCollectionTypes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/manyToMany.gdoc</t>
+  </si>
   <si>
     <t>guide/gettingStarted/deployingAnApplication.gdoc</t>
   </si>
@@ -155,1457 +1603,17 @@
   </si>
   <si>
     <t>guide/conf/ivy/providingDefaultDependencies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/versioning.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf.gdoc</t>
-  </si>
-  <si>
-    <t>guide/deployment.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/aHelloWorldExample.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/conventionOverConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/creatingAnApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/creatingArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/repositories.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/understandingPluginLoadOrder.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/understandingPluginStructure.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/rewriteRules.txt</t>
-  </si>
-  <si>
-    <t>guide/scaffolding.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/authentication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/testingAnApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/upgradingFromPreviousVersionsOfGrails.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/usingInteractiveMode.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/defaultSortOrder.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/eventsAutoTimestamping.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/caching.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/compositePrimaryKeys.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/customCascadeBehaviour.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/customHibernateTypes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/customNamingStrategy.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/databaseIndices.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/derivedProperties.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/fetchingDSL.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/identity.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/inheritanceStrategies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/optimisticLockingAndVersioning.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/tableAndColumnNames.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/basicCollectionTypes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/manyToMany.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/manyToOneAndOneToOne.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/oneToMany.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormComposition.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/inheritanceInGORM.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/sets,ListsAndMaps.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxWithGWT.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxWithPrototype.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/contentNegotiation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/asynchronousRequestProcessing.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/modificationChecking.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/savingAndUpdating.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/programmaticTransactions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying/criteria.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying/finders.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying/hql.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/quickStartGuide/basicCRUD.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/quickStartGuide.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate/addingConstraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate/mappingWithHibernateAnnotations.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate/usingHibernateXMLMappingFiles.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/changingLocales.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/readingMessages.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/scaffoldingAndI18n.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/understandingMessageBundles.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/coreFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/developmentEnvironmentFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/persistenceFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/testingFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/webFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction.gdoc</t>
-  </si>
-  <si>
-    <t>guide/links.yml</t>
-  </si>
-  <si>
-    <t>guide/plugins/addingDynamicMethodsAtRuntime.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/artefactApi/customArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/artefactApi/queryingArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/artefactApi.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/binaryPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/creatingAndInstallingPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/evaluatingConventions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/hookingIntoBuildEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/hookingIntoRuntimeConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/participatingInAutoReloadEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/providingBasicArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/otherResourceTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/overridingPluginResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/preventingProcessingOfResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/codecs.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securingAgainstAttacks.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securityPlugins/shiro.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securityPlugins/springSecurity.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securityPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/declarativeTransactions/transactionsRollbackAndTheSession.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/declarativeTransactions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/dependencyInjectionServices.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/scopedServices.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/usingServicesFromJava.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/propertyOverrideConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/propertyPlaceholderConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/springdsl.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/springdslAdditional.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/theBeanBuilderDSLExplained.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/theUnderpinningsOfGrails.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/functionalTesting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/integrationTesting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/mockingCollaborators.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingControllers.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingDomains.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingFilters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingTagLibraries.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingURLMappings.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxOnTheServer.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/ajaxEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/remoteFormSubmission.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/remotingLinking.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/updatingContent.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxWithDojo.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/subflowsAndConversations.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer.gdoc</t>
-  </si>
-  <si>
-    <t>guide/toc.yml</t>
-  </si>
-  <si>
-    <t>guide/validation/constraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validatingConstraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/commandObjects.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/controllersAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/dataBinding.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/formtokens.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/interceptors.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/modelsAndViews.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/moreOnJSONBuilder.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/redirectsAndChaining.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/typeConverters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/understandingControllersAndActions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/uploadingFiles.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/xmlAndJSON.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/applyingFilters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/filterDependencies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/filterTypes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/filterVariablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/expressions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/logicAndIteration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/pageDirectives.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/variablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPDebugging.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/layouts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/makingChangesToADeployedApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/debugging.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/declaringResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/includingResourcesUsingTheResourceTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/optimizingYourResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/otherResourcesPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/package.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/plugin-info.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/remove-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/run-app.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/run-script.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/sitemeshContentBlocks.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/formsAndFields.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/linksAndResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/searchAndFiltering.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/tagLogicAndIteration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/tagsAsMethodCalls.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/tagVariablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/viewsAndTemplates.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/iterativeTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/logicalTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/namespaces.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/simpleTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/taglibVariablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/tagReturnValue.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/usingJSPTagLibraries.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/applyingConstraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/automaticLinkRewriting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/embeddedVariables.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingHTTP.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingToControllersAndActions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingToResponseCodes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingToViews.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingWildcards.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/namedMappings.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/actionStatesAndViewStates.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/dataBindingAndValidation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/flowExecutionEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/flowScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/startAndEndStates.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/autoImport.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/autoTimestamp.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/batchSize.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/cache.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validationAndInternationalization.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validationNonDomainAndCommandObjectClasses.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validationOnTheClient.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices/REST.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices/RSSAndAtom.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices/SOAP.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/add-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/bootstrap.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/bug-report.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/clean.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/clear-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/compile.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/console.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-app.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-controller.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-domain-class.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-filters.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-hibernate-cfg-xml.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-integration-test.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-scaffold-controller.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-script.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-service.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-tag-lib.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-unit-test.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/dependency-report.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/doc.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/generate-all.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/generate-controller.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/generate-views.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/help.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/init.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/install-dependency.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/install-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/install-templates.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/integrate-with.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/interactive.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/list-plugin-updates.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/list-plugins.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/migrate-docs.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/package-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/getAll.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/getDirtyPropertyNames.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/getPersistentValue.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/hasErrors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/run-war.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/schema-export.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/set-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/set-version.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/shell.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/stats.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/test-app.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/uninstall-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/upgrade.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/war.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/attributes.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/blank.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/creditCard.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/email.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/inList.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/matches.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/max.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/maxSize.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/min.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/minSize.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/notEqual.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/nullable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/range.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/scale.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/size.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/unique.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/url.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/validator.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/widget.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/actionName.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/afterInterceptor.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/allowedMethods.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/beforeInterceptor.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/bindData.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/chain.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/controllerName.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/defaultAction.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/flash.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/forward.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/grailsApplication.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/params.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/redirect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/render.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/request.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/response.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/servletContext.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/session.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/withForm.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/withFormat.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/pageScope.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/params.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/request.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/response.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/cascade.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/column.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/discriminator.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/dynamicInsert.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/dynamicUpdate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/fetch.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/id.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/ignoreNotFound.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/indexColumn.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/insertable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/joinTable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/lazy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/order.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/sort.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/table.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/type.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/updateable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/version.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/addTo.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/attach.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/belongsTo.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/clearErrors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/constraints.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/count.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/countBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/createCriteria.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/delete.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/discard.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/embedded.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/errors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/executeQuery.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/executeUpdate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/exists.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/fetchMode.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/find.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findAll.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findAllBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findAllWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrCreateBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrCreateWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrSaveBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrSaveWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/get.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/textField.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/timeZoneSelect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/unless.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/uploadForm.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/while.gdoc</t>
-  </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref/Domain Classes/hasMany.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/hasOne.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/ident.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/instanceOf.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/isAttached.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/isDirty.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/list.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/listOrderBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/load.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/lock.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/mappedBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/mapping.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/merge.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/namedQueries.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/properties.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/read.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/refresh.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/removeFrom.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/save.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/transients.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/validate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withCriteria.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withNewSession.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withSession.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withTransaction.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/codecs.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/controllers.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/core.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/dataSource.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/domainClasses.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/filters.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/hibernate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/i18n.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/logging.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/scaffolding.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/services.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/servlets.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/URL mappings.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/web flow.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Services/scope.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Services/transactional.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Services.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Servlet API/request.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Servlet API/response.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Servlet API/servletContext.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Servlet API/session.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/actionName.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/controllerName.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/flash.gdoc</t>
-  </si>
-  <si>
-    <t>Translation Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Translator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1st Corrector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2st Corrector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1st Rev Dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2st Rev Dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/servletContext.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/session.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/actionSubmit.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/actionSubmitImage.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/applyLayout.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/checkBox.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/collect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/cookie.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/country.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/countrySelect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/createLink.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/createLinkTo.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/currencySelect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/datePicker.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/each.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/eachError.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/else.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/elseif.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/external.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/fieldValue.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/findAll.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/form.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/formatBoolean.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/formatDate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/formatNumber.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/formRemote.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/grep.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/hasErrors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/header.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/hiddenField.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/if.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/img.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/include.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/javascript.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/join.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/layoutBody.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/layoutHead.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/layoutTitle.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/link.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/localeSelect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/message.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/meta.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/pageProperty.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/paginate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/passwordField.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/radio.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/radioGroup.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/remoteField.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/remoteFunction.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/remoteLink.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/render.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/renderErrors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/resource.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/select.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/set.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/setProvider.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/sortableColumn.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/submitButton.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/submitToRemote.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/textArea.gdoc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1615,6 +1623,11 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="Verdana"/>
     </font>
@@ -1650,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1668,6 +1681,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1999,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G516"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A504" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F519" sqref="F519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1"/>
@@ -2019,2663 +2044,2689 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>405</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>458</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>461</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>462</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>460</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>1</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="17" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>5</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>9</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>95</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>114</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>115</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>116</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>118</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>119</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>120</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>121</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>122</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>123</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>126</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>127</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>129</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>131</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>53</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>55</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>56</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>57</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>58</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>59</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>139</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>140</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>141</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>142</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>143</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>145</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>146</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>147</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="17" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>149</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>150</v>
+        <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>152</v>
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>153</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>156</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>157</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>158</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>159</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="17" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>162</v>
+        <v>396</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>163</v>
+        <v>397</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>164</v>
+        <v>398</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>165</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>166</v>
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>167</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>168</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>169</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>170</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>89</v>
+        <v>407</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>90</v>
+        <v>408</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="17" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="17" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>92</v>
+        <v>410</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="17" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>178</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="17" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>181</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="17" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="17" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>183</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="17" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="17" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>186</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="17" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="17" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>188</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>189</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>190</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="17" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>191</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="17" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>192</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="17" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>193</v>
+        <v>348</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="17" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="17" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="17" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="17" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="17" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="17" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="17" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>201</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="17" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>202</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="17" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>203</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="17" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="17" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="17" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="17" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="17" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="17" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="17" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="17" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>135</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="17" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="17" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="17" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="17" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="17" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="17" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="17" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="17" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="17" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="17" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="17" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="17" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="17" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="17" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="17" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="17" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="17" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="17" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="17" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="17" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="17" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="17" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="17" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="17" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="17" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="17" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="17" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="17" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="17" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="17" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="17" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="17" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="17" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="17" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="17" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="17" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>175</v>
+        <v>330</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="17" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>176</v>
+        <v>331</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="17" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="17" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="17" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="17" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="17" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="17" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="17" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="17" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="17" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="17" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="17" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="17" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="17" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="17" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="17" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="17" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="17" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="17" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="17" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="17" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="17" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="17" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="17" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="17" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="17" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="17" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="17" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="17" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="17" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="17" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="17" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="17" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="17" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="17" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="17" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="17" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="17" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="17" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="17" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="17" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="17" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="17" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>292</v>
+        <v>187</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="17" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="17" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="17" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="17" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="17" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="17" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="17" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="17" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="17" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="17" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="17" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>303</v>
+        <v>198</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="17" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="17" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>305</v>
+        <v>200</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="17" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="17" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>307</v>
+        <v>202</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="17" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="17" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="B300" s="6">
         <v>39327</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="17" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="17" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="17" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="17" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="17" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="17" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>315</v>
+        <v>210</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="17" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>316</v>
+        <v>211</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="17" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="17" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="17" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="17" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>320</v>
+        <v>215</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="17" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>321</v>
+        <v>216</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="17" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="17" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="17" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="17" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="17" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="17" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="17" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="B320" s="6">
         <v>39327</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="17" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="17" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="17" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="17" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="17" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="17" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="17" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="17" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="17" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="17" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="17" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="17" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="17" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>342</v>
+        <v>131</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="17" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>343</v>
+        <v>132</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="17" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>344</v>
+        <v>133</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="17" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>345</v>
+        <v>134</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="17" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>346</v>
+        <v>135</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="17" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>347</v>
+        <v>136</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="17" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>348</v>
+        <v>137</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="17" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="17" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B341" s="6">
         <v>39327</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="17" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="17" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="17" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="17" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="17" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>354</v>
+        <v>143</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="17" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>355</v>
+        <v>144</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="17" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>356</v>
+        <v>145</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="17" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="17" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>358</v>
+        <v>147</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="17" customHeight="1">
       <c r="A351" s="1" t="s">
-        <v>359</v>
+        <v>148</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="17" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="17" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>361</v>
+        <v>150</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="17" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>362</v>
+        <v>151</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="17" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="17" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>364</v>
+        <v>153</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="17" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>365</v>
+        <v>154</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="17" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="17" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>367</v>
+        <v>156</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="17" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>368</v>
+        <v>157</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="17" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="17" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>370</v>
+        <v>159</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="17" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>371</v>
+        <v>160</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="17" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="B364" s="6">
         <v>39327</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="17" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>373</v>
+        <v>162</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="17" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>374</v>
+        <v>163</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="17" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>375</v>
+        <v>164</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="17" customHeight="1">
       <c r="A368" s="1" t="s">
-        <v>376</v>
+        <v>165</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="17" customHeight="1">
       <c r="A369" s="1" t="s">
-        <v>377</v>
+        <v>166</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="17" customHeight="1">
       <c r="A370" s="1" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="17" customHeight="1">
       <c r="A371" s="1" t="s">
-        <v>379</v>
+        <v>168</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="17" customHeight="1">
       <c r="A372" s="1" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17" customHeight="1">
       <c r="A373" s="1" t="s">
-        <v>381</v>
+        <v>170</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17" customHeight="1">
       <c r="A374" s="1" t="s">
-        <v>382</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="17" customHeight="1">
       <c r="A375" s="1" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="17" customHeight="1">
       <c r="A376" s="1" t="s">
-        <v>384</v>
+        <v>173</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="17" customHeight="1">
       <c r="A377" s="1" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="17" customHeight="1">
       <c r="A378" s="1" t="s">
-        <v>386</v>
+        <v>175</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="17" customHeight="1">
       <c r="A379" s="1" t="s">
-        <v>387</v>
+        <v>176</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="17" customHeight="1">
       <c r="A380" s="1" t="s">
-        <v>388</v>
+        <v>177</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="17" customHeight="1">
       <c r="A381" s="1" t="s">
-        <v>389</v>
+        <v>178</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="17" customHeight="1">
       <c r="A382" s="1" t="s">
-        <v>390</v>
+        <v>179</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="17" customHeight="1">
       <c r="A383" s="1" t="s">
-        <v>391</v>
+        <v>180</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="17" customHeight="1">
       <c r="A384" s="1" t="s">
-        <v>392</v>
+        <v>181</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="17" customHeight="1">
       <c r="A385" s="1" t="s">
-        <v>393</v>
+        <v>182</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="17" customHeight="1">
       <c r="A386" s="1" t="s">
-        <v>394</v>
+        <v>75</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="17" customHeight="1">
       <c r="A387" s="1" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="17" customHeight="1">
       <c r="A388" s="1" t="s">
-        <v>396</v>
+        <v>77</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="17" customHeight="1">
       <c r="A389" s="1" t="s">
-        <v>397</v>
+        <v>78</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="17" customHeight="1">
       <c r="A390" s="1" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="17" customHeight="1">
       <c r="A391" s="1" t="s">
-        <v>399</v>
+        <v>80</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="17" customHeight="1">
       <c r="A392" s="1" t="s">
-        <v>295</v>
+        <v>190</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="17" customHeight="1">
       <c r="A393" s="1" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="17" customHeight="1">
       <c r="A394" s="1" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="17" customHeight="1">
       <c r="A395" s="1" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="17" customHeight="1">
       <c r="A396" s="1" t="s">
-        <v>406</v>
+        <v>87</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="17" customHeight="1">
       <c r="A397" s="1" t="s">
-        <v>407</v>
+        <v>88</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="17" customHeight="1">
       <c r="A398" s="1" t="s">
-        <v>408</v>
+        <v>89</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="17" customHeight="1">
       <c r="A399" s="1" t="s">
-        <v>409</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="17" customHeight="1">
       <c r="A400" s="1" t="s">
-        <v>410</v>
+        <v>91</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="17" customHeight="1">
       <c r="A401" s="1" t="s">
-        <v>411</v>
+        <v>92</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="17" customHeight="1">
       <c r="A402" s="1" t="s">
-        <v>412</v>
+        <v>93</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="17" customHeight="1">
       <c r="A403" s="1" t="s">
-        <v>413</v>
+        <v>94</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="17" customHeight="1">
       <c r="A404" s="1" t="s">
-        <v>414</v>
+        <v>95</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="17" customHeight="1">
       <c r="A405" s="1" t="s">
-        <v>415</v>
+        <v>96</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="17" customHeight="1">
       <c r="A406" s="1" t="s">
-        <v>416</v>
+        <v>97</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="17" customHeight="1">
       <c r="A407" s="1" t="s">
-        <v>417</v>
+        <v>98</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="17" customHeight="1">
       <c r="A408" s="1" t="s">
-        <v>418</v>
+        <v>99</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="17" customHeight="1">
       <c r="A409" s="1" t="s">
-        <v>419</v>
+        <v>100</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="17" customHeight="1">
       <c r="A410" s="1" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="17" customHeight="1">
       <c r="A411" s="1" t="s">
-        <v>421</v>
+        <v>102</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="17" customHeight="1">
       <c r="A412" s="1" t="s">
-        <v>422</v>
+        <v>103</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="17" customHeight="1">
       <c r="A413" s="1" t="s">
-        <v>423</v>
+        <v>104</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="17" customHeight="1">
       <c r="A414" s="1" t="s">
-        <v>424</v>
+        <v>105</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="17" customHeight="1">
       <c r="A415" s="1" t="s">
-        <v>425</v>
+        <v>106</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="17" customHeight="1">
       <c r="A416" s="1" t="s">
-        <v>426</v>
+        <v>107</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="17" customHeight="1">
       <c r="A417" s="1" t="s">
-        <v>427</v>
+        <v>108</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="17" customHeight="1">
       <c r="A418" s="1" t="s">
-        <v>428</v>
+        <v>109</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="17" customHeight="1">
       <c r="A419" s="1" t="s">
-        <v>429</v>
+        <v>110</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="17" customHeight="1">
       <c r="A420" s="1" t="s">
-        <v>430</v>
+        <v>111</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="17" customHeight="1">
       <c r="A421" s="1" t="s">
-        <v>431</v>
+        <v>112</v>
       </c>
       <c r="B421" s="6">
         <v>39327</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="17" customHeight="1">
       <c r="A422" s="1" t="s">
-        <v>432</v>
+        <v>113</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="17" customHeight="1">
       <c r="A423" s="1" t="s">
-        <v>433</v>
+        <v>114</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="17" customHeight="1">
       <c r="A424" s="1" t="s">
-        <v>434</v>
+        <v>115</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="17" customHeight="1">
       <c r="A425" s="1" t="s">
-        <v>435</v>
+        <v>116</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="17" customHeight="1">
       <c r="A426" s="1" t="s">
-        <v>436</v>
+        <v>117</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="17" customHeight="1">
       <c r="A427" s="1" t="s">
-        <v>437</v>
+        <v>118</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="17" customHeight="1">
       <c r="A428" s="1" t="s">
-        <v>438</v>
+        <v>119</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="17" customHeight="1">
       <c r="A429" s="1" t="s">
-        <v>439</v>
+        <v>120</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="17" customHeight="1">
       <c r="A430" s="1" t="s">
-        <v>440</v>
+        <v>121</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="17" customHeight="1">
       <c r="A431" s="1" t="s">
-        <v>441</v>
+        <v>122</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="17" customHeight="1">
       <c r="A432" s="1" t="s">
-        <v>442</v>
+        <v>123</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="17" customHeight="1">
       <c r="A433" s="1" t="s">
-        <v>443</v>
+        <v>124</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="17" customHeight="1">
       <c r="A434" s="1" t="s">
-        <v>444</v>
+        <v>125</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="17" customHeight="1">
       <c r="A435" s="1" t="s">
-        <v>445</v>
+        <v>126</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="17" customHeight="1">
       <c r="A436" s="1" t="s">
-        <v>446</v>
+        <v>127</v>
       </c>
       <c r="B436" s="6">
         <v>39327</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="17" customHeight="1">
       <c r="A437" s="1" t="s">
-        <v>447</v>
+        <v>128</v>
       </c>
       <c r="B437" s="6">
         <v>39327</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="17" customHeight="1">
       <c r="A438" s="1" t="s">
-        <v>448</v>
+        <v>129</v>
       </c>
       <c r="B438" s="6">
         <v>39327</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="17" customHeight="1">
       <c r="A439" s="1" t="s">
-        <v>449</v>
+        <v>130</v>
       </c>
       <c r="B439" s="6">
         <v>39327</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="17" customHeight="1">
       <c r="A440" s="1" t="s">
-        <v>450</v>
+        <v>9</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="17" customHeight="1">
       <c r="A441" s="1" t="s">
-        <v>451</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="17" customHeight="1">
       <c r="A442" s="1" t="s">
-        <v>452</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="17" customHeight="1">
       <c r="A443" s="1" t="s">
-        <v>453</v>
+        <v>12</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="17" customHeight="1">
       <c r="A444" s="1" t="s">
-        <v>454</v>
+        <v>13</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="17" customHeight="1">
       <c r="A445" s="1" t="s">
-        <v>455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="17" customHeight="1">
       <c r="A446" s="1" t="s">
-        <v>456</v>
+        <v>15</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="17" customHeight="1">
       <c r="A447" s="1" t="s">
-        <v>350</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="17" customHeight="1">
       <c r="A448" s="1" t="s">
-        <v>351</v>
+        <v>140</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="17" customHeight="1">
       <c r="A449" s="1" t="s">
-        <v>352</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="17" customHeight="1">
       <c r="A450" s="1" t="s">
-        <v>353</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="17" customHeight="1">
       <c r="A451" s="1" t="s">
-        <v>463</v>
+        <v>22</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="17" customHeight="1">
       <c r="A452" s="1" t="s">
-        <v>464</v>
+        <v>23</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="17" customHeight="1">
       <c r="A453" s="1" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="B453" s="6">
         <v>39327</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="17" customHeight="1">
       <c r="A454" s="1" t="s">
-        <v>466</v>
+        <v>25</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="17" customHeight="1">
       <c r="A455" s="1" t="s">
-        <v>467</v>
+        <v>26</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="17" customHeight="1">
       <c r="A456" s="1" t="s">
-        <v>468</v>
+        <v>27</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="17" customHeight="1">
       <c r="A457" s="1" t="s">
-        <v>469</v>
+        <v>28</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="17" customHeight="1">
       <c r="A458" s="1" t="s">
-        <v>470</v>
+        <v>29</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="17" customHeight="1">
       <c r="A459" s="1" t="s">
-        <v>471</v>
+        <v>30</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="17" customHeight="1">
       <c r="A460" s="1" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="17" customHeight="1">
       <c r="A461" s="1" t="s">
-        <v>473</v>
+        <v>32</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="17" customHeight="1">
       <c r="A462" s="1" t="s">
-        <v>474</v>
+        <v>33</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="17" customHeight="1">
       <c r="A463" s="1" t="s">
-        <v>475</v>
+        <v>34</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="17" customHeight="1">
       <c r="A464" s="1" t="s">
-        <v>476</v>
+        <v>35</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="17" customHeight="1">
       <c r="A465" s="1" t="s">
-        <v>477</v>
+        <v>36</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="17" customHeight="1">
       <c r="A466" s="1" t="s">
-        <v>478</v>
+        <v>37</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="17" customHeight="1">
       <c r="A467" s="1" t="s">
-        <v>479</v>
+        <v>38</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="17" customHeight="1">
       <c r="A468" s="1" t="s">
-        <v>480</v>
+        <v>39</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="17" customHeight="1">
       <c r="A469" s="1" t="s">
-        <v>481</v>
+        <v>40</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="17" customHeight="1">
       <c r="A470" s="1" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="17" customHeight="1">
       <c r="A471" s="1" t="s">
-        <v>483</v>
+        <v>42</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="17" customHeight="1">
       <c r="A472" s="1" t="s">
-        <v>484</v>
+        <v>43</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="17" customHeight="1">
       <c r="A473" s="1" t="s">
-        <v>485</v>
+        <v>44</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="17" customHeight="1">
       <c r="A474" s="1" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="17" customHeight="1">
       <c r="A475" s="1" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="17" customHeight="1">
       <c r="A476" s="1" t="s">
-        <v>488</v>
+        <v>47</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="17" customHeight="1">
       <c r="A477" s="1" t="s">
-        <v>489</v>
+        <v>48</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="17" customHeight="1">
       <c r="A478" s="1" t="s">
-        <v>490</v>
+        <v>49</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="17" customHeight="1">
       <c r="A479" s="1" t="s">
-        <v>491</v>
+        <v>50</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="17" customHeight="1">
       <c r="A480" s="1" t="s">
-        <v>492</v>
+        <v>51</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="17" customHeight="1">
       <c r="A481" s="1" t="s">
-        <v>493</v>
+        <v>52</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="17" customHeight="1">
       <c r="A482" s="1" t="s">
-        <v>494</v>
+        <v>53</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="17" customHeight="1">
       <c r="A483" s="1" t="s">
-        <v>495</v>
+        <v>54</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="17" customHeight="1">
       <c r="A484" s="1" t="s">
-        <v>496</v>
+        <v>55</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="17" customHeight="1">
       <c r="A485" s="1" t="s">
-        <v>497</v>
+        <v>56</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="17" customHeight="1">
       <c r="A486" s="1" t="s">
-        <v>498</v>
+        <v>57</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="17" customHeight="1">
       <c r="A487" s="1" t="s">
-        <v>499</v>
+        <v>58</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="17" customHeight="1">
       <c r="A488" s="1" t="s">
-        <v>500</v>
+        <v>59</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="17" customHeight="1">
       <c r="A489" s="1" t="s">
-        <v>501</v>
+        <v>60</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="17" customHeight="1">
       <c r="A490" s="1" t="s">
-        <v>502</v>
+        <v>61</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="17" customHeight="1">
       <c r="A491" s="1" t="s">
-        <v>503</v>
+        <v>62</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="17" customHeight="1">
       <c r="A492" s="1" t="s">
-        <v>504</v>
+        <v>63</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="17" customHeight="1">
       <c r="A493" s="1" t="s">
-        <v>505</v>
+        <v>64</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="17" customHeight="1">
       <c r="A494" s="1" t="s">
-        <v>506</v>
+        <v>65</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="17" customHeight="1">
       <c r="A495" s="1" t="s">
-        <v>507</v>
+        <v>66</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="17" customHeight="1">
       <c r="A496" s="1" t="s">
-        <v>508</v>
+        <v>67</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="17" customHeight="1">
       <c r="A497" s="1" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="17" customHeight="1">
       <c r="A498" s="1" t="s">
-        <v>510</v>
+        <v>69</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="17" customHeight="1">
       <c r="A499" s="1" t="s">
-        <v>511</v>
+        <v>70</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="17" customHeight="1">
       <c r="A500" s="1" t="s">
-        <v>512</v>
+        <v>71</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="17" customHeight="1">
       <c r="A501" s="1" t="s">
-        <v>513</v>
+        <v>72</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="17" customHeight="1">
       <c r="A502" s="1" t="s">
-        <v>514</v>
+        <v>73</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="17" customHeight="1">
       <c r="A503" s="1" t="s">
-        <v>515</v>
+        <v>74</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="17" customHeight="1">
       <c r="A504" s="1" t="s">
-        <v>516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="17" customHeight="1">
       <c r="A505" s="1" t="s">
-        <v>517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="17" customHeight="1">
       <c r="A506" s="1" t="s">
-        <v>518</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="17" customHeight="1">
       <c r="A507" s="1" t="s">
-        <v>519</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17" customHeight="1">
       <c r="A508" s="1" t="s">
-        <v>520</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="17" customHeight="1">
       <c r="A509" s="1" t="s">
-        <v>521</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="17" customHeight="1">
       <c r="A510" s="1" t="s">
-        <v>522</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="17" customHeight="1">
       <c r="A511" s="1" t="s">
-        <v>523</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="17" customHeight="1">
       <c r="A512" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" ht="17" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="17" customHeight="1">
       <c r="A513" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" ht="17" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="17" customHeight="1">
       <c r="A514" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" ht="17" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="17" customHeight="1">
       <c r="A515" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" ht="17" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="17" customHeight="1">
       <c r="A516" s="1" t="s">
-        <v>404</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="17" customHeight="1" thickBot="1">
+      <c r="A517" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B517" s="8">
+        <f>(COUNTA(B2:B516))/515</f>
+        <v>1.9417475728155338E-2</v>
+      </c>
+      <c r="C517" s="9"/>
+      <c r="D517" s="8">
+        <f>(COUNTA(D2:D516))/515</f>
+        <v>0</v>
+      </c>
+      <c r="E517" s="10"/>
+      <c r="F517" s="8">
+        <f>(COUNTA(F2:F516))/515</f>
+        <v>0</v>
+      </c>
+      <c r="G517" s="10"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B517:C517"/>
+    <mergeCell ref="D517:E517"/>
+    <mergeCell ref="F517:G517"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/pt_BR/translation-control.xlsx
+++ b/src/pt_BR/translation-control.xlsx
@@ -19,7 +19,1390 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="526">
+  <si>
+    <t>guide/conf/ivy/dependencyRepositories.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/inheritedDependencies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/mavendeploy.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/mavenIntegration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/pluginDependencies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/pluginJARDependencies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/providingDefaultDependencies.gdoc</t>
+  </si>
+  <si>
+    <t>lucastex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/tableAndColumnNames.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/basicCollectionTypes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/manyToMany.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/deployingAnApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/downloadingAndInstalling.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/generatingAnApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/ide.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/runningAnApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/supportedJavaEEContainers.gdoc</t>
+  </si>
+  <si>
+    <t>lucastex</t>
+  </si>
+  <si>
+    <t>lucastex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/gormConstraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/cascades.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/deletingObjects.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/fetching.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/locking.gdoc</t>
+  </si>
+  <si>
+    <t>guide/commandLine/antAndMaven.gdoc</t>
+  </si>
+  <si>
+    <t>guide/commandLine/buildCustomising.gdoc</t>
+  </si>
+  <si>
+    <t>guide/commandLine/creatingGantScripts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/commandLine/events.gdoc</t>
+  </si>
+  <si>
+    <t>guide/commandLine/interactiveMode.gdoc</t>
+  </si>
+  <si>
+    <t>guide/commandLine/reusingGrailsScripts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/commandLine.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/config/builtInOptions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/config/configGORM.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/config/logging.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/config.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/configExternalized.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/dataSource/automaticDatabaseMigration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/dataSource/databaseConsole.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/dataSource/dataSourcesAndEnvironments.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/dataSource/JNDIDataSources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/dataSource/multipleDatasources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/dataSource/transactionAwareDataSourceProxy.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/dataSource.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/docengine.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/environments.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/configurationsAndDependencies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/debuggingResolution.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy/dependencyReports.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/webFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction.gdoc</t>
+  </si>
+  <si>
+    <t>guide/links.yml</t>
+  </si>
+  <si>
+    <t>guide/plugins/addingDynamicMethodsAtRuntime.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/artefactApi/customArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/artefactApi/queryingArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/artefactApi.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/ivy.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf/versioning.gdoc</t>
+  </si>
+  <si>
+    <t>guide/conf.gdoc</t>
+  </si>
+  <si>
+    <t>guide/deployment.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/aHelloWorldExample.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/conventionOverConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/creatingAnApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/creatingArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/repositories.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/understandingPluginLoadOrder.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/understandingPluginStructure.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/rewriteRules.txt</t>
+  </si>
+  <si>
+    <t>guide/scaffolding.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/authentication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/testingAnApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/upgradingFromPreviousVersionsOfGrails.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted/usingInteractiveMode.gdoc</t>
+  </si>
+  <si>
+    <t>guide/gettingStarted.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/defaultSortOrder.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/eventsAutoTimestamping.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/caching.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/compositePrimaryKeys.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/customCascadeBehaviour.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/customHibernateTypes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/customNamingStrategy.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/databaseIndices.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/derivedProperties.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/fetchingDSL.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/identity.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/inheritanceStrategies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/advancedGORMFeatures/ormdsl/optimisticLockingAndVersioning.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingDomains.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingFilters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingTagLibraries.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingURLMappings.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxOnTheServer.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/manyToOneAndOneToOne.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation/oneToMany.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormAssociation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/gormComposition.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/inheritanceInGORM.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/domainClasses/sets,ListsAndMaps.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxWithGWT.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxWithPrototype.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/contentNegotiation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/asynchronousRequestProcessing.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/modificationChecking.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics/savingAndUpdating.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/persistenceBasics.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/programmaticTransactions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying/criteria.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying/finders.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying/hql.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/querying.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/quickStartGuide/basicCRUD.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM/quickStartGuide.gdoc</t>
+  </si>
+  <si>
+    <t>guide/GORM.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate/addingConstraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate/mappingWithHibernateAnnotations.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate/usingHibernateXMLMappingFiles.gdoc</t>
+  </si>
+  <si>
+    <t>guide/hibernate.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/changingLocales.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/readingMessages.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/scaffoldingAndI18n.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n/understandingMessageBundles.gdoc</t>
+  </si>
+  <si>
+    <t>guide/i18n.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/coreFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/developmentEnvironmentFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/persistenceFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/introduction/whatsNew/testingFeatures.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/pageDirectives.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/variablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPDebugging.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/layouts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/makingChangesToADeployedApplication.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/binaryPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/creatingAndInstallingPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/evaluatingConventions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/hookingIntoBuildEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/hookingIntoRuntimeConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/participatingInAutoReloadEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/plugins/providingBasicArtefacts.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/otherResourceTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/overridingPluginResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/preventingProcessingOfResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/codecs.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securingAgainstAttacks.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securityPlugins/shiro.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securityPlugins/springSecurity.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security/securityPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>guide/security.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/declarativeTransactions/transactionsRollbackAndTheSession.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/declarativeTransactions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/dependencyInjectionServices.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/scopedServices.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services/usingServicesFromJava.gdoc</t>
+  </si>
+  <si>
+    <t>guide/services.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/propertyOverrideConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/propertyPlaceholderConfiguration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/springdsl.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/springdslAdditional.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/theBeanBuilderDSLExplained.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring/theUnderpinningsOfGrails.gdoc</t>
+  </si>
+  <si>
+    <t>guide/spring.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/functionalTesting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/integrationTesting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/mockingCollaborators.gdoc</t>
+  </si>
+  <si>
+    <t>guide/testing/unitTesting/unitTestingControllers.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingToControllersAndActions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingToResponseCodes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingToViews.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingWildcards.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/namedMappings.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/ajaxEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/remoteFormSubmission.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/remotingLinking.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport/updatingContent.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxSupport.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/ajax/ajaxWithDojo.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/subflowsAndConversations.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer.gdoc</t>
+  </si>
+  <si>
+    <t>guide/toc.yml</t>
+  </si>
+  <si>
+    <t>guide/validation/constraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validatingConstraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/commandObjects.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/controllersAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/dataBinding.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/formtokens.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/interceptors.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/modelsAndViews.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/moreOnJSONBuilder.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/redirectsAndChaining.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/typeConverters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/understandingControllersAndActions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/uploadingFiles.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers/xmlAndJSON.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/controllers.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/applyingFilters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/filterDependencies.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/filterTypes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters/filterVariablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/filters.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/expressions.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/GSPBasics/logicAndIteration.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/doc.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/generate-all.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/generate-controller.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/generate-views.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/help.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/init.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/install-dependency.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/install-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/debugging.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/declaringResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/includingResourcesUsingTheResourceTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/optimizingYourResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/resources/otherResourcesPlugins.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/package.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/plugin-info.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/remove-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/run-app.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/run-script.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/sitemeshContentBlocks.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/formsAndFields.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/linksAndResources.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/searchAndFiltering.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/tagLogicAndIteration.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/tagsAsMethodCalls.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags/tagVariablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/tags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp/viewsAndTemplates.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/gsp.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/iterativeTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/logicalTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/namespaces.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/simpleTags.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/taglibVariablesAndScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/tagReturnValue.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs/usingJSPTagLibraries.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/taglibs.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/applyingConstraints.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/automaticLinkRewriting.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/embeddedVariables.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/urlmappings/mappingHTTP.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/beforeInterceptor.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/bindData.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/chain.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/controllerName.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/defaultAction.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/flash.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/forward.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/grailsApplication.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/params.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/actionStatesAndViewStates.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/dataBindingAndValidation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/flowExecutionEvents.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/flowScopes.gdoc</t>
+  </si>
+  <si>
+    <t>guide/theWebLayer/webflow/startAndEndStates.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/autoImport.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/autoTimestamp.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/batchSize.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/cache.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validationAndInternationalization.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validationNonDomainAndCommandObjectClasses.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation/validationOnTheClient.gdoc</t>
+  </si>
+  <si>
+    <t>guide/validation.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices/REST.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices/RSSAndAtom.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices/SOAP.gdoc</t>
+  </si>
+  <si>
+    <t>guide/webServices.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/add-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/bootstrap.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/bug-report.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/clean.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/clear-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/compile.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/console.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-app.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-controller.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-domain-class.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-filters.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-hibernate-cfg-xml.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-integration-test.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-scaffold-controller.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-script.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-service.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-tag-lib.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/create-unit-test.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/dependency-report.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/executeUpdate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/exists.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/fetchMode.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/find.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findAll.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findAllBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findAllWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/install-templates.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/integrate-with.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/interactive.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/list-plugin-updates.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/list-plugins.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/migrate-docs.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/package-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/getAll.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/getDirtyPropertyNames.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/getPersistentValue.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/hasErrors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/run-war.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/schema-export.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/set-proxy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/set-version.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/shell.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/stats.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/test-app.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/uninstall-plugin.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/upgrade.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line/war.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Command Line.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/attributes.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/blank.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/creditCard.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/email.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/inList.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/matches.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/max.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/maxSize.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/min.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/minSize.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/notEqual.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/nullable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/range.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/scale.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/size.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/unique.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/url.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/validator.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints/widget.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Constraints.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/actionName.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/afterInterceptor.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/allowedMethods.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/scaffolding.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/services.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/servlets.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/URL mappings.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/web flow.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Services/scope.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Services/transactional.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Services.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/redirect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/render.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/request.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/response.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/servletContext.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/session.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/withForm.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Controllers/withFormat.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/pageScope.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/params.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/request.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tag Libraries/response.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/cascade.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/column.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/discriminator.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/dynamicInsert.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/dynamicUpdate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/fetch.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/id.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/ignoreNotFound.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/indexColumn.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/insertable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/joinTable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/lazy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/order.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/sort.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/table.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/type.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/updateable.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping/version.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Database Mapping.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/addTo.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/attach.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/belongsTo.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/clearErrors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/constraints.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/count.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/countBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/createCriteria.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/delete.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/discard.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/embedded.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/errors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/executeQuery.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/paginate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/passwordField.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/radio.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/radioGroup.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/remoteField.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/remoteFunction.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/remoteLink.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/render.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/renderErrors.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrCreateBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrCreateWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrSaveBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findOrSaveWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/findWhere.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/get.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/textField.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/timeZoneSelect.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/unless.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/uploadForm.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Tags/while.gdoc</t>
+  </si>
+  <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref/Domain Classes/hasMany.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/hasOne.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/ident.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/instanceOf.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/isAttached.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/isDirty.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/list.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/listOrderBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/load.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/lock.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/mappedBy.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/mapping.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/merge.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/namedQueries.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/properties.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/read.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/refresh.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/removeFrom.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/save.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/transients.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/validate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withCriteria.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withNewSession.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withSession.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes/withTransaction.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Domain Classes.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/codecs.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/controllers.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/core.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/dataSource.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/domainClasses.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/filters.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/hibernate.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/i18n.gdoc</t>
+  </si>
+  <si>
+    <t>ref/Plug-ins/logging.gdoc</t>
+  </si>
   <si>
     <t>ref/Tags/resource.gdoc</t>
   </si>
@@ -224,1395 +1607,12 @@
   </si>
   <si>
     <t>ref/Tags/pageProperty.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/paginate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/passwordField.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/radio.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/radioGroup.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/remoteField.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/remoteFunction.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/remoteLink.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/render.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/renderErrors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrCreateBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrCreateWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrSaveBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findOrSaveWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/get.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/textField.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/timeZoneSelect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/unless.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/uploadForm.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tags/while.gdoc</t>
-  </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref/Domain Classes/hasMany.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/hasOne.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/ident.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/instanceOf.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/isAttached.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/isDirty.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/list.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/listOrderBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/load.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/lock.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/mappedBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/mapping.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/merge.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/namedQueries.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/properties.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/read.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/refresh.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/removeFrom.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/save.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/transients.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/validate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withCriteria.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withNewSession.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withSession.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/withTransaction.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/codecs.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/controllers.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/core.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/dataSource.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/domainClasses.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/filters.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/hibernate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/i18n.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/logging.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/scaffolding.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/services.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/servlets.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/URL mappings.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins/web flow.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Plug-ins.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Services/scope.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Services/transactional.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Services.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/redirect.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/render.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/request.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/response.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/servletContext.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/session.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/withForm.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/withFormat.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/pageScope.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/params.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/request.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Tag Libraries/response.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/cascade.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/column.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/discriminator.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/dynamicInsert.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/dynamicUpdate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/fetch.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/id.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/ignoreNotFound.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/indexColumn.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/insertable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/joinTable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/lazy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/order.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/sort.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/table.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/type.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/updateable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/version.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/addTo.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/attach.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/belongsTo.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/clearErrors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/constraints.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/count.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/countBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/createCriteria.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/delete.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/discard.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/embedded.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/errors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/executeQuery.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/executeUpdate.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/exists.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/fetchMode.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/find.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findAll.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findAllBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findAllWhere.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/findBy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/install-templates.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/integrate-with.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/interactive.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/list-plugin-updates.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/list-plugins.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/migrate-docs.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/package-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/getAll.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/getDirtyPropertyNames.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/getPersistentValue.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Domain Classes/hasErrors.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/run-war.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/schema-export.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/set-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/set-version.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/shell.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/stats.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/test-app.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/uninstall-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/upgrade.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/war.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/attributes.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/blank.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/creditCard.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/email.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/inList.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/matches.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/max.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/maxSize.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/min.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/minSize.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/notEqual.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/nullable.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/range.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/scale.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/size.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/unique.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/url.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/validator.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints/widget.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Constraints.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/actionName.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/afterInterceptor.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/allowedMethods.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/beforeInterceptor.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/bindData.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/chain.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/controllerName.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/defaultAction.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/flash.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/forward.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/grailsApplication.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers/params.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/actionStatesAndViewStates.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/dataBindingAndValidation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/flowExecutionEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/flowScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/startAndEndStates.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Controllers.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/autoImport.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/autoTimestamp.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/batchSize.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Database Mapping/cache.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validationAndInternationalization.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validationNonDomainAndCommandObjectClasses.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validationOnTheClient.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices/REST.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices/RSSAndAtom.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices/SOAP.gdoc</t>
-  </si>
-  <si>
-    <t>guide/webServices.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/add-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/bootstrap.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/bug-report.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/clean.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/clear-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/compile.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/console.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-app.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-controller.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-domain-class.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-filters.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-hibernate-cfg-xml.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-integration-test.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-scaffold-controller.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-script.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-service.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-tag-lib.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/create-unit-test.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/dependency-report.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/doc.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/generate-all.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/generate-controller.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/generate-views.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/help.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/init.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/install-dependency.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/install-plugin.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/debugging.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/declaringResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/includingResourcesUsingTheResourceTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/optimizingYourResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/otherResourcesPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/package.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/plugin-info.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/remove-proxy.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/run-app.gdoc</t>
-  </si>
-  <si>
-    <t>ref/Command Line/run-script.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/sitemeshContentBlocks.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/formsAndFields.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/linksAndResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/searchAndFiltering.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/tagLogicAndIteration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/tagsAsMethodCalls.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags/tagVariablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/tags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/viewsAndTemplates.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/iterativeTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/logicalTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/namespaces.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/simpleTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/taglibVariablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/tagReturnValue.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs/usingJSPTagLibraries.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/taglibs.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/applyingConstraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/automaticLinkRewriting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/embeddedVariables.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingHTTP.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingToControllersAndActions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingToResponseCodes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingToViews.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/mappingWildcards.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings/namedMappings.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/urlmappings.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/ajaxEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/remoteFormSubmission.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/remotingLinking.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport/updatingContent.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxSupport.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxWithDojo.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow/subflowsAndConversations.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/webflow.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer.gdoc</t>
-  </si>
-  <si>
-    <t>guide/toc.yml</t>
-  </si>
-  <si>
-    <t>guide/validation/constraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/validation/validatingConstraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/commandObjects.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/controllersAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/dataBinding.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/formtokens.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/interceptors.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/modelsAndViews.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/moreOnJSONBuilder.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/redirectsAndChaining.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/typeConverters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/understandingControllersAndActions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/uploadingFiles.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/xmlAndJSON.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/applyingFilters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/filterDependencies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/filterTypes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters/filterVariablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/filters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/expressions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/logicAndIteration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/pageDirectives.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics/variablesAndScopes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPBasics.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/GSPDebugging.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/layouts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/makingChangesToADeployedApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/binaryPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/creatingAndInstallingPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/evaluatingConventions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/hookingIntoBuildEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/hookingIntoRuntimeConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/participatingInAutoReloadEvents.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/providingBasicArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/otherResourceTags.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/overridingPluginResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources/preventingProcessingOfResources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/gsp/resources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/codecs.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securingAgainstAttacks.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securityPlugins/shiro.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securityPlugins/springSecurity.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/securityPlugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/declarativeTransactions/transactionsRollbackAndTheSession.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/declarativeTransactions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/dependencyInjectionServices.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/scopedServices.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services/usingServicesFromJava.gdoc</t>
-  </si>
-  <si>
-    <t>guide/services.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/propertyOverrideConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/propertyPlaceholderConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/springdsl.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/springdslAdditional.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/theBeanBuilderDSLExplained.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring/theUnderpinningsOfGrails.gdoc</t>
-  </si>
-  <si>
-    <t>guide/spring.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/functionalTesting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/integrationTesting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/mockingCollaborators.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingControllers.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingDomains.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingFilters.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingTagLibraries.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting/unitTestingURLMappings.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing/unitTesting.gdoc</t>
-  </si>
-  <si>
-    <t>guide/testing.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxOnTheServer.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/manyToOneAndOneToOne.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/oneToMany.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormComposition.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/inheritanceInGORM.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/sets,ListsAndMaps.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxWithGWT.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax/ajaxWithPrototype.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/ajax.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/contentNegotiation.gdoc</t>
-  </si>
-  <si>
-    <t>guide/theWebLayer/controllers/asynchronousRequestProcessing.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/modificationChecking.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/savingAndUpdating.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/programmaticTransactions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying/criteria.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying/finders.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying/hql.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/querying.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/quickStartGuide/basicCRUD.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/quickStartGuide.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate/addingConstraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate/mappingWithHibernateAnnotations.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate/usingHibernateXMLMappingFiles.gdoc</t>
-  </si>
-  <si>
-    <t>guide/hibernate.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/changingLocales.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/readingMessages.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/scaffoldingAndI18n.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n/understandingMessageBundles.gdoc</t>
-  </si>
-  <si>
-    <t>guide/i18n.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/coreFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/developmentEnvironmentFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/persistenceFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/testingFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew/webFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction/whatsNew.gdoc</t>
-  </si>
-  <si>
-    <t>guide/introduction.gdoc</t>
-  </si>
-  <si>
-    <t>guide/links.yml</t>
-  </si>
-  <si>
-    <t>guide/plugins/addingDynamicMethodsAtRuntime.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/artefactApi/customArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/artefactApi/queryingArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/artefactApi.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/versioning.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf.gdoc</t>
-  </si>
-  <si>
-    <t>guide/deployment.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/aHelloWorldExample.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/conventionOverConfiguration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/creatingAnApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/creatingArtefacts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/repositories.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/understandingPluginLoadOrder.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins/understandingPluginStructure.gdoc</t>
-  </si>
-  <si>
-    <t>guide/plugins.gdoc</t>
-  </si>
-  <si>
-    <t>guide/rewriteRules.txt</t>
-  </si>
-  <si>
-    <t>guide/scaffolding.gdoc</t>
-  </si>
-  <si>
-    <t>guide/security/authentication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/testingAnApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/upgradingFromPreviousVersionsOfGrails.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/usingInteractiveMode.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/defaultSortOrder.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/eventsAutoTimestamping.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/caching.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/compositePrimaryKeys.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/customCascadeBehaviour.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/customHibernateTypes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/customNamingStrategy.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/databaseIndices.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/derivedProperties.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/fetchingDSL.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/identity.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/inheritanceStrategies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/optimisticLockingAndVersioning.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl/tableAndColumnNames.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures/ormdsl.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/advancedGORMFeatures.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/basicCollectionTypes.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses/gormAssociation/manyToMany.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/deployingAnApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/downloadingAndInstalling.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/generatingAnApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/ide.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/runningAnApplication.gdoc</t>
-  </si>
-  <si>
-    <t>guide/gettingStarted/supportedJavaEEContainers.gdoc</t>
-  </si>
-  <si>
-    <t>lucastex</t>
-  </si>
-  <si>
-    <t>lucastex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide/GORM/domainClasses.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/gormConstraints.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/cascades.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/deletingObjects.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/fetching.gdoc</t>
-  </si>
-  <si>
-    <t>guide/GORM/persistenceBasics/locking.gdoc</t>
-  </si>
-  <si>
-    <t>guide/commandLine/antAndMaven.gdoc</t>
-  </si>
-  <si>
-    <t>guide/commandLine/buildCustomising.gdoc</t>
-  </si>
-  <si>
-    <t>guide/commandLine/creatingGantScripts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/commandLine/events.gdoc</t>
-  </si>
-  <si>
-    <t>guide/commandLine/interactiveMode.gdoc</t>
-  </si>
-  <si>
-    <t>guide/commandLine/reusingGrailsScripts.gdoc</t>
-  </si>
-  <si>
-    <t>guide/commandLine.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/config/builtInOptions.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/config/configGORM.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/config/logging.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/config.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/configExternalized.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/dataSource/automaticDatabaseMigration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/dataSource/databaseConsole.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/dataSource/dataSourcesAndEnvironments.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/dataSource/JNDIDataSources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/dataSource/multipleDatasources.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/dataSource/transactionAwareDataSourceProxy.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/dataSource.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/docengine.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/environments.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/configurationsAndDependencies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/debuggingResolution.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/dependencyReports.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/dependencyRepositories.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/inheritedDependencies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/mavendeploy.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/mavenIntegration.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/pluginDependencies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/pluginJARDependencies.gdoc</t>
-  </si>
-  <si>
-    <t>guide/conf/ivy/providingDefaultDependencies.gdoc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -2026,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G517"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A504" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F519" sqref="F519"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A506" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D441" sqref="D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1"/>
@@ -2044,2669 +2044,2693 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>477</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>478</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>481</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>494</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>495</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>496</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>497</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>499</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>500</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>501</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>502</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>503</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>504</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>505</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>506</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>507</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>509</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>510</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>511</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>512</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>513</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>514</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>515</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>516</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>517</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>520</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>521</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>522</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>523</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>524</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>443</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>446</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>448</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>449</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>450</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>480</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>481</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>482</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>483</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>484</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="17" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>485</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>458</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>459</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>460</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>461</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>462</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>463</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>464</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>465</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>466</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>467</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>468</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>469</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>470</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>471</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>472</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>473</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>474</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>475</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>476</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>477</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>478</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>479</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>400</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>401</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>402</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>403</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>404</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>405</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>488</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>489</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>490</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>491</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>492</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>493</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>411</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>412</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>413</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>414</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>415</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>416</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>417</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>418</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>419</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>420</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>421</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>423</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>424</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>425</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>426</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>427</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>428</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>429</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>430</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>431</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>432</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>433</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>434</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>435</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>436</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>437</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>438</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>439</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>440</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>441</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>442</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>360</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>361</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>362</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>363</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>364</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>365</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>451</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>452</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>453</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>454</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>455</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>456</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>457</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>370</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>371</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>372</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>373</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>374</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>375</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>376</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>378</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>379</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>380</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>381</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="17" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>382</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>383</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>384</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>385</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>386</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>387</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>388</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>389</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>390</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>391</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>392</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>393</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="17" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>394</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>395</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>396</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>397</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>398</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>399</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>323</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>325</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>326</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>406</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>407</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>408</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="17" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>409</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="17" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>410</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="17" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="17" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>334</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="17" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="17" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="17" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>339</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="17" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>340</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>341</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="17" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>342</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="17" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>344</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>345</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="17" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>346</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="17" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>347</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="17" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>348</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="17" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>349</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="17" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>350</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="17" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>351</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>352</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="17" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>353</v>
+        <v>133</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="17" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="17" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>355</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="17" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>356</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="17" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>357</v>
+        <v>137</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="17" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>358</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="17" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="17" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="17" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="17" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="17" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>366</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="17" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>367</v>
+        <v>147</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="17" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>368</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="17" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>369</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="17" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="17" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="17" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="17" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="17" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="17" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="17" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="17" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="17" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="17" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="17" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="17" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="17" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="17" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="17" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="17" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="17" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="17" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="17" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="17" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="17" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="17" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="17" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="17" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="17" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="17" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>319</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="17" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="17" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="17" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="17" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="17" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="17" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="17" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="17" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="17" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="17" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>330</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="17" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>331</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="17" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="17" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="17" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="17" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="17" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="17" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="17" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="17" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="17" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="17" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="17" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="17" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="17" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="17" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="17" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="17" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="17" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="17" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="17" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="17" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="17" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="17" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="17" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="17" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="17" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="17" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="17" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="17" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="17" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="17" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="17" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="17" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="17" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="17" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="17" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="17" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="17" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="17" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>183</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="17" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="17" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="17" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>186</v>
+        <v>309</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="17" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="17" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="17" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="17" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="17" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="17" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="17" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="17" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="17" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="17" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="17" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="17" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="17" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="17" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="17" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>201</v>
+        <v>324</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="17" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="17" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="17" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="B300" s="6">
         <v>39327</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>487</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="17" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>205</v>
+        <v>328</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="17" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>206</v>
+        <v>329</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="17" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="17" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>208</v>
+        <v>331</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="17" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="17" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="17" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>211</v>
+        <v>334</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="17" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="17" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="17" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="17" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>215</v>
+        <v>338</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="17" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>216</v>
+        <v>339</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="17" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="17" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>218</v>
+        <v>341</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="17" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="17" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>221</v>
+        <v>344</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="17" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="17" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>223</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="17" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="B320" s="6">
         <v>39327</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="17" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="17" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>226</v>
+        <v>349</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="17" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>227</v>
+        <v>350</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="17" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="17" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="17" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="17" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="17" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="17" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="17" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="17" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="17" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="17" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>131</v>
+        <v>360</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="17" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>132</v>
+        <v>361</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="17" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>133</v>
+        <v>362</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="17" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>134</v>
+        <v>363</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="17" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>135</v>
+        <v>364</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="17" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>136</v>
+        <v>365</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="17" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>137</v>
+        <v>366</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="17" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>138</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="17" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="B341" s="6">
         <v>39327</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="17" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="17" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="17" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="17" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="17" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>143</v>
+        <v>372</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="17" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>144</v>
+        <v>373</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="17" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="17" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>146</v>
+        <v>375</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="17" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>147</v>
+        <v>376</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="17" customHeight="1">
       <c r="A351" s="1" t="s">
-        <v>148</v>
+        <v>377</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="17" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="17" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>150</v>
+        <v>379</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="17" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>151</v>
+        <v>380</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="17" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>152</v>
+        <v>381</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="17" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>153</v>
+        <v>382</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="17" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>154</v>
+        <v>383</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="17" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>155</v>
+        <v>384</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="17" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>156</v>
+        <v>385</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="17" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>157</v>
+        <v>386</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="17" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>158</v>
+        <v>387</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="17" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>159</v>
+        <v>388</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="17" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>160</v>
+        <v>389</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="17" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>161</v>
+        <v>390</v>
       </c>
       <c r="B364" s="6">
         <v>39327</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="17" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>162</v>
+        <v>391</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="17" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>163</v>
+        <v>392</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="17" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>164</v>
+        <v>393</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="17" customHeight="1">
       <c r="A368" s="1" t="s">
-        <v>165</v>
+        <v>394</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="17" customHeight="1">
       <c r="A369" s="1" t="s">
-        <v>166</v>
+        <v>395</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="17" customHeight="1">
       <c r="A370" s="1" t="s">
-        <v>167</v>
+        <v>396</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="17" customHeight="1">
       <c r="A371" s="1" t="s">
-        <v>168</v>
+        <v>397</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="17" customHeight="1">
       <c r="A372" s="1" t="s">
-        <v>169</v>
+        <v>398</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17" customHeight="1">
       <c r="A373" s="1" t="s">
-        <v>170</v>
+        <v>399</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17" customHeight="1">
       <c r="A374" s="1" t="s">
-        <v>171</v>
+        <v>400</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="17" customHeight="1">
       <c r="A375" s="1" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="17" customHeight="1">
       <c r="A376" s="1" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="17" customHeight="1">
       <c r="A377" s="1" t="s">
-        <v>174</v>
+        <v>403</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="17" customHeight="1">
       <c r="A378" s="1" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="17" customHeight="1">
       <c r="A379" s="1" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="17" customHeight="1">
       <c r="A380" s="1" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="17" customHeight="1">
       <c r="A381" s="1" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="17" customHeight="1">
       <c r="A382" s="1" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="17" customHeight="1">
       <c r="A383" s="1" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="17" customHeight="1">
       <c r="A384" s="1" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="17" customHeight="1">
       <c r="A385" s="1" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="17" customHeight="1">
       <c r="A386" s="1" t="s">
-        <v>75</v>
+        <v>413</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="17" customHeight="1">
       <c r="A387" s="1" t="s">
-        <v>76</v>
+        <v>414</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="17" customHeight="1">
       <c r="A388" s="1" t="s">
-        <v>77</v>
+        <v>415</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="17" customHeight="1">
       <c r="A389" s="1" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="17" customHeight="1">
       <c r="A390" s="1" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="17" customHeight="1">
       <c r="A391" s="1" t="s">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="17" customHeight="1">
       <c r="A392" s="1" t="s">
-        <v>190</v>
+        <v>313</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="17" customHeight="1">
       <c r="A393" s="1" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="17" customHeight="1">
       <c r="A394" s="1" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="17" customHeight="1">
       <c r="A395" s="1" t="s">
-        <v>193</v>
+        <v>316</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="17" customHeight="1">
       <c r="A396" s="1" t="s">
-        <v>87</v>
+        <v>425</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="17" customHeight="1">
       <c r="A397" s="1" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="17" customHeight="1">
       <c r="A398" s="1" t="s">
-        <v>89</v>
+        <v>427</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="17" customHeight="1">
       <c r="A399" s="1" t="s">
-        <v>90</v>
+        <v>428</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="17" customHeight="1">
       <c r="A400" s="1" t="s">
-        <v>91</v>
+        <v>429</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="17" customHeight="1">
       <c r="A401" s="1" t="s">
-        <v>92</v>
+        <v>430</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="17" customHeight="1">
       <c r="A402" s="1" t="s">
-        <v>93</v>
+        <v>431</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="17" customHeight="1">
       <c r="A403" s="1" t="s">
-        <v>94</v>
+        <v>432</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="17" customHeight="1">
       <c r="A404" s="1" t="s">
-        <v>95</v>
+        <v>433</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="17" customHeight="1">
       <c r="A405" s="1" t="s">
-        <v>96</v>
+        <v>434</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="17" customHeight="1">
       <c r="A406" s="1" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="17" customHeight="1">
       <c r="A407" s="1" t="s">
-        <v>98</v>
+        <v>436</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="17" customHeight="1">
       <c r="A408" s="1" t="s">
-        <v>99</v>
+        <v>437</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="17" customHeight="1">
       <c r="A409" s="1" t="s">
-        <v>100</v>
+        <v>438</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="17" customHeight="1">
       <c r="A410" s="1" t="s">
-        <v>101</v>
+        <v>439</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="17" customHeight="1">
       <c r="A411" s="1" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="17" customHeight="1">
       <c r="A412" s="1" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="17" customHeight="1">
       <c r="A413" s="1" t="s">
-        <v>104</v>
+        <v>442</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="17" customHeight="1">
       <c r="A414" s="1" t="s">
-        <v>105</v>
+        <v>443</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="17" customHeight="1">
       <c r="A415" s="1" t="s">
-        <v>106</v>
+        <v>444</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="17" customHeight="1">
       <c r="A416" s="1" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="17" customHeight="1">
       <c r="A417" s="1" t="s">
-        <v>108</v>
+        <v>446</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="17" customHeight="1">
       <c r="A418" s="1" t="s">
-        <v>109</v>
+        <v>447</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="17" customHeight="1">
       <c r="A419" s="1" t="s">
-        <v>110</v>
+        <v>448</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="17" customHeight="1">
       <c r="A420" s="1" t="s">
-        <v>111</v>
+        <v>449</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="17" customHeight="1">
       <c r="A421" s="1" t="s">
-        <v>112</v>
+        <v>450</v>
       </c>
       <c r="B421" s="6">
         <v>39327</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="17" customHeight="1">
       <c r="A422" s="1" t="s">
-        <v>113</v>
+        <v>451</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="17" customHeight="1">
       <c r="A423" s="1" t="s">
-        <v>114</v>
+        <v>452</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="17" customHeight="1">
       <c r="A424" s="1" t="s">
-        <v>115</v>
+        <v>453</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="17" customHeight="1">
       <c r="A425" s="1" t="s">
-        <v>116</v>
+        <v>454</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="17" customHeight="1">
       <c r="A426" s="1" t="s">
-        <v>117</v>
+        <v>455</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="17" customHeight="1">
       <c r="A427" s="1" t="s">
-        <v>118</v>
+        <v>456</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="17" customHeight="1">
       <c r="A428" s="1" t="s">
-        <v>119</v>
+        <v>457</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="17" customHeight="1">
       <c r="A429" s="1" t="s">
-        <v>120</v>
+        <v>458</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="17" customHeight="1">
       <c r="A430" s="1" t="s">
-        <v>121</v>
+        <v>459</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="17" customHeight="1">
       <c r="A431" s="1" t="s">
-        <v>122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="17" customHeight="1">
       <c r="A432" s="1" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="17" customHeight="1">
       <c r="A433" s="1" t="s">
-        <v>124</v>
+        <v>353</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="17" customHeight="1">
       <c r="A434" s="1" t="s">
-        <v>125</v>
+        <v>354</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="17" customHeight="1">
       <c r="A435" s="1" t="s">
-        <v>126</v>
+        <v>355</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="17" customHeight="1">
       <c r="A436" s="1" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="B436" s="6">
         <v>39327</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="17" customHeight="1">
       <c r="A437" s="1" t="s">
-        <v>128</v>
+        <v>357</v>
       </c>
       <c r="B437" s="6">
         <v>39327</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="17" customHeight="1">
       <c r="A438" s="1" t="s">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="B438" s="6">
         <v>39327</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="17" customHeight="1">
       <c r="A439" s="1" t="s">
-        <v>130</v>
+        <v>359</v>
       </c>
       <c r="B439" s="6">
         <v>39327</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="17" customHeight="1">
       <c r="A440" s="1" t="s">
-        <v>9</v>
+        <v>469</v>
+      </c>
+      <c r="B440" s="6">
+        <v>39328</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="17" customHeight="1">
       <c r="A441" s="1" t="s">
-        <v>10</v>
+        <v>470</v>
+      </c>
+      <c r="B441" s="6">
+        <v>39328</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="17" customHeight="1">
       <c r="A442" s="1" t="s">
-        <v>11</v>
+        <v>471</v>
+      </c>
+      <c r="B442" s="6">
+        <v>39328</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="17" customHeight="1">
       <c r="A443" s="1" t="s">
-        <v>12</v>
+        <v>472</v>
+      </c>
+      <c r="B443" s="6">
+        <v>39328</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="17" customHeight="1">
       <c r="A444" s="1" t="s">
-        <v>13</v>
+        <v>473</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="17" customHeight="1">
       <c r="A445" s="1" t="s">
-        <v>14</v>
+        <v>474</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="17" customHeight="1">
       <c r="A446" s="1" t="s">
-        <v>15</v>
+        <v>475</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="17" customHeight="1">
       <c r="A447" s="1" t="s">
-        <v>139</v>
+        <v>368</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="17" customHeight="1">
       <c r="A448" s="1" t="s">
-        <v>140</v>
+        <v>369</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="17" customHeight="1">
       <c r="A449" s="1" t="s">
-        <v>141</v>
+        <v>370</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="17" customHeight="1">
       <c r="A450" s="1" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="17" customHeight="1">
       <c r="A451" s="1" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="17" customHeight="1">
       <c r="A452" s="1" t="s">
-        <v>23</v>
+        <v>483</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="17" customHeight="1">
       <c r="A453" s="1" t="s">
-        <v>24</v>
+        <v>484</v>
       </c>
       <c r="B453" s="6">
         <v>39327</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="17" customHeight="1">
       <c r="A454" s="1" t="s">
-        <v>25</v>
+        <v>485</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="17" customHeight="1">
       <c r="A455" s="1" t="s">
-        <v>26</v>
+        <v>486</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="17" customHeight="1">
       <c r="A456" s="1" t="s">
-        <v>27</v>
+        <v>487</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="17" customHeight="1">
       <c r="A457" s="1" t="s">
-        <v>28</v>
+        <v>488</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="17" customHeight="1">
       <c r="A458" s="1" t="s">
-        <v>29</v>
+        <v>489</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="17" customHeight="1">
       <c r="A459" s="1" t="s">
-        <v>30</v>
+        <v>490</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="17" customHeight="1">
       <c r="A460" s="1" t="s">
-        <v>31</v>
+        <v>491</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="17" customHeight="1">
       <c r="A461" s="1" t="s">
-        <v>32</v>
+        <v>492</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="17" customHeight="1">
       <c r="A462" s="1" t="s">
-        <v>33</v>
+        <v>493</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="17" customHeight="1">
       <c r="A463" s="1" t="s">
-        <v>34</v>
+        <v>494</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="17" customHeight="1">
       <c r="A464" s="1" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="17" customHeight="1">
       <c r="A465" s="1" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="17" customHeight="1">
       <c r="A466" s="1" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="17" customHeight="1">
       <c r="A467" s="1" t="s">
-        <v>38</v>
+        <v>498</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="17" customHeight="1">
       <c r="A468" s="1" t="s">
-        <v>39</v>
+        <v>499</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="17" customHeight="1">
       <c r="A469" s="1" t="s">
-        <v>40</v>
+        <v>500</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="17" customHeight="1">
       <c r="A470" s="1" t="s">
-        <v>41</v>
+        <v>501</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="17" customHeight="1">
       <c r="A471" s="1" t="s">
-        <v>42</v>
+        <v>502</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="17" customHeight="1">
       <c r="A472" s="1" t="s">
-        <v>43</v>
+        <v>503</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="17" customHeight="1">
       <c r="A473" s="1" t="s">
-        <v>44</v>
+        <v>504</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="17" customHeight="1">
       <c r="A474" s="1" t="s">
-        <v>45</v>
+        <v>505</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="17" customHeight="1">
       <c r="A475" s="1" t="s">
-        <v>46</v>
+        <v>506</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="17" customHeight="1">
       <c r="A476" s="1" t="s">
-        <v>47</v>
+        <v>507</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="17" customHeight="1">
       <c r="A477" s="1" t="s">
-        <v>48</v>
+        <v>508</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="17" customHeight="1">
       <c r="A478" s="1" t="s">
-        <v>49</v>
+        <v>509</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="17" customHeight="1">
       <c r="A479" s="1" t="s">
-        <v>50</v>
+        <v>510</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="17" customHeight="1">
       <c r="A480" s="1" t="s">
-        <v>51</v>
+        <v>511</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="17" customHeight="1">
       <c r="A481" s="1" t="s">
-        <v>52</v>
+        <v>512</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="17" customHeight="1">
       <c r="A482" s="1" t="s">
-        <v>53</v>
+        <v>513</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="17" customHeight="1">
       <c r="A483" s="1" t="s">
-        <v>54</v>
+        <v>514</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="17" customHeight="1">
       <c r="A484" s="1" t="s">
-        <v>55</v>
+        <v>515</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="17" customHeight="1">
       <c r="A485" s="1" t="s">
-        <v>56</v>
+        <v>516</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="17" customHeight="1">
       <c r="A486" s="1" t="s">
-        <v>57</v>
+        <v>517</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="17" customHeight="1">
       <c r="A487" s="1" t="s">
-        <v>58</v>
+        <v>518</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="17" customHeight="1">
       <c r="A488" s="1" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="17" customHeight="1">
       <c r="A489" s="1" t="s">
-        <v>60</v>
+        <v>520</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="17" customHeight="1">
       <c r="A490" s="1" t="s">
-        <v>61</v>
+        <v>521</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="17" customHeight="1">
       <c r="A491" s="1" t="s">
-        <v>62</v>
+        <v>522</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="17" customHeight="1">
       <c r="A492" s="1" t="s">
-        <v>63</v>
+        <v>523</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="17" customHeight="1">
       <c r="A493" s="1" t="s">
-        <v>64</v>
+        <v>524</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="17" customHeight="1">
       <c r="A494" s="1" t="s">
-        <v>65</v>
+        <v>525</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="17" customHeight="1">
       <c r="A495" s="1" t="s">
-        <v>66</v>
+        <v>404</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="17" customHeight="1">
       <c r="A496" s="1" t="s">
-        <v>67</v>
+        <v>405</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="17" customHeight="1">
       <c r="A497" s="1" t="s">
-        <v>68</v>
+        <v>406</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="17" customHeight="1">
       <c r="A498" s="1" t="s">
-        <v>69</v>
+        <v>407</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="17" customHeight="1">
       <c r="A499" s="1" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="17" customHeight="1">
       <c r="A500" s="1" t="s">
-        <v>71</v>
+        <v>409</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="17" customHeight="1">
       <c r="A501" s="1" t="s">
-        <v>72</v>
+        <v>410</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="17" customHeight="1">
       <c r="A502" s="1" t="s">
-        <v>73</v>
+        <v>411</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="17" customHeight="1">
       <c r="A503" s="1" t="s">
-        <v>74</v>
+        <v>412</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="17" customHeight="1">
       <c r="A504" s="1" t="s">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="17" customHeight="1">
       <c r="A505" s="1" t="s">
-        <v>1</v>
+        <v>461</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="17" customHeight="1">
       <c r="A506" s="1" t="s">
-        <v>2</v>
+        <v>462</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="17" customHeight="1">
       <c r="A507" s="1" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17" customHeight="1">
       <c r="A508" s="1" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="17" customHeight="1">
       <c r="A509" s="1" t="s">
-        <v>5</v>
+        <v>465</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="17" customHeight="1">
       <c r="A510" s="1" t="s">
-        <v>6</v>
+        <v>466</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="17" customHeight="1">
       <c r="A511" s="1" t="s">
-        <v>7</v>
+        <v>467</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="17" customHeight="1">
       <c r="A512" s="1" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
     </row>
     <row r="513" spans="1:7" ht="17" customHeight="1">
       <c r="A513" s="1" t="s">
-        <v>82</v>
+        <v>420</v>
       </c>
     </row>
     <row r="514" spans="1:7" ht="17" customHeight="1">
       <c r="A514" s="1" t="s">
-        <v>83</v>
+        <v>421</v>
       </c>
     </row>
     <row r="515" spans="1:7" ht="17" customHeight="1">
       <c r="A515" s="1" t="s">
-        <v>84</v>
+        <v>422</v>
       </c>
     </row>
     <row r="516" spans="1:7" ht="17" customHeight="1">
       <c r="A516" s="1" t="s">
-        <v>85</v>
+        <v>423</v>
       </c>
     </row>
     <row r="517" spans="1:7" ht="17" customHeight="1" thickBot="1">
       <c r="A517" s="7" t="s">
-        <v>8</v>
+        <v>468</v>
       </c>
       <c r="B517" s="8">
         <f>(COUNTA(B2:B516))/515</f>
-        <v>1.9417475728155338E-2</v>
+        <v>2.7184466019417475E-2</v>
       </c>
       <c r="C517" s="9"/>
       <c r="D517" s="8">

--- a/src/pt_BR/translation-control.xlsx
+++ b/src/pt_BR/translation-control.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="47200" windowHeight="26000" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="527">
   <si>
     <t>guide/conf/ivy/dependencyRepositories.gdoc</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>ref/Tags/pageProperty.gdoc</t>
+  </si>
+  <si>
+    <t>fdsadat</t>
   </si>
 </sst>
 </file>
@@ -2023,26 +2026,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G517"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A506" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D441" sqref="D441"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A334" zoomScale="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>424</v>
       </c>
@@ -2065,1497 +2068,1497 @@
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1">
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1">
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1">
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1">
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1">
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1">
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1">
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1">
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1">
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" customHeight="1">
+    <row r="17" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" customHeight="1">
+    <row r="18" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" customHeight="1">
+    <row r="19" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" customHeight="1">
+    <row r="20" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" customHeight="1">
+    <row r="21" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17" customHeight="1">
+    <row r="22" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17" customHeight="1">
+    <row r="23" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17" customHeight="1">
+    <row r="24" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17" customHeight="1">
+    <row r="25" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17" customHeight="1">
+    <row r="26" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17" customHeight="1">
+    <row r="27" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17" customHeight="1">
+    <row r="28" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17" customHeight="1">
+    <row r="29" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="17" customHeight="1">
+    <row r="30" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17" customHeight="1">
+    <row r="31" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="17" customHeight="1">
+    <row r="32" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="17" customHeight="1">
+    <row r="33" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="17" customHeight="1">
+    <row r="34" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17" customHeight="1">
+    <row r="35" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="17" customHeight="1">
+    <row r="36" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17" customHeight="1">
+    <row r="37" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17" customHeight="1">
+    <row r="38" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17" customHeight="1">
+    <row r="39" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17" customHeight="1">
+    <row r="40" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17" customHeight="1">
+    <row r="41" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17" customHeight="1">
+    <row r="42" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17" customHeight="1">
+    <row r="43" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="17" customHeight="1">
+    <row r="44" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17" customHeight="1">
+    <row r="45" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17" customHeight="1">
+    <row r="46" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="17" customHeight="1">
+    <row r="47" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="17" customHeight="1">
+    <row r="48" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17" customHeight="1">
+    <row r="49" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17" customHeight="1">
+    <row r="50" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17" customHeight="1">
+    <row r="51" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="17" customHeight="1">
+    <row r="52" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17" customHeight="1">
+    <row r="53" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="17" customHeight="1">
+    <row r="54" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="17" customHeight="1">
+    <row r="55" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="17" customHeight="1">
+    <row r="56" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="17" customHeight="1">
+    <row r="57" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="17" customHeight="1">
+    <row r="58" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="17" customHeight="1">
+    <row r="59" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="17" customHeight="1">
+    <row r="60" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="17" customHeight="1">
+    <row r="61" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="17" customHeight="1">
+    <row r="62" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="17" customHeight="1">
+    <row r="63" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="17" customHeight="1">
+    <row r="64" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="17" customHeight="1">
+    <row r="65" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17" customHeight="1">
+    <row r="66" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="17" customHeight="1">
+    <row r="67" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="17" customHeight="1">
+    <row r="68" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="17" customHeight="1">
+    <row r="69" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="17" customHeight="1">
+    <row r="70" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="17" customHeight="1">
+    <row r="71" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="17" customHeight="1">
+    <row r="72" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="17" customHeight="1">
+    <row r="73" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="17" customHeight="1">
+    <row r="74" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="17" customHeight="1">
+    <row r="75" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="17" customHeight="1">
+    <row r="76" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17" customHeight="1">
+    <row r="77" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="17" customHeight="1">
+    <row r="78" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="17" customHeight="1">
+    <row r="79" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="17" customHeight="1">
+    <row r="80" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="17" customHeight="1">
+    <row r="81" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="17" customHeight="1">
+    <row r="82" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="17" customHeight="1">
+    <row r="83" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="17" customHeight="1">
+    <row r="84" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="17" customHeight="1">
+    <row r="85" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="17" customHeight="1">
+    <row r="86" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="17" customHeight="1">
+    <row r="87" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="17" customHeight="1">
+    <row r="88" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="17" customHeight="1">
+    <row r="89" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="17" customHeight="1">
+    <row r="90" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="17" customHeight="1">
+    <row r="91" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="17" customHeight="1">
+    <row r="92" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="17" customHeight="1">
+    <row r="93" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="17" customHeight="1">
+    <row r="94" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="17" customHeight="1">
+    <row r="95" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="17" customHeight="1">
+    <row r="96" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="17" customHeight="1">
+    <row r="97" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="17" customHeight="1">
+    <row r="98" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="17" customHeight="1">
+    <row r="99" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="17" customHeight="1">
+    <row r="100" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="17" customHeight="1">
+    <row r="101" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="17" customHeight="1">
+    <row r="102" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="17" customHeight="1">
+    <row r="103" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="17" customHeight="1">
+    <row r="104" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="17" customHeight="1">
+    <row r="105" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="17" customHeight="1">
+    <row r="106" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="17" customHeight="1">
+    <row r="107" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="17" customHeight="1">
+    <row r="108" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="17" customHeight="1">
+    <row r="109" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="17" customHeight="1">
+    <row r="110" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="17" customHeight="1">
+    <row r="111" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="17" customHeight="1">
+    <row r="112" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="17" customHeight="1">
+    <row r="113" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="17" customHeight="1">
+    <row r="114" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="17" customHeight="1">
+    <row r="115" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="17" customHeight="1">
+    <row r="116" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="17" customHeight="1">
+    <row r="117" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="17" customHeight="1">
+    <row r="118" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="17" customHeight="1">
+    <row r="119" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17" customHeight="1">
+    <row r="120" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="17" customHeight="1">
+    <row r="121" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="17" customHeight="1">
+    <row r="122" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="17" customHeight="1">
+    <row r="123" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="17" customHeight="1">
+    <row r="124" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="17" customHeight="1">
+    <row r="125" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17" customHeight="1">
+    <row r="126" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17" customHeight="1">
+    <row r="127" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="17" customHeight="1">
+    <row r="128" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="17" customHeight="1">
+    <row r="129" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="17" customHeight="1">
+    <row r="130" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="17" customHeight="1">
+    <row r="131" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="17" customHeight="1">
+    <row r="132" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="17" customHeight="1">
+    <row r="133" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="17" customHeight="1">
+    <row r="134" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="17" customHeight="1">
+    <row r="135" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="17" customHeight="1">
+    <row r="136" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="17" customHeight="1">
+    <row r="137" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="17" customHeight="1">
+    <row r="138" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="17" customHeight="1">
+    <row r="139" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="17" customHeight="1">
+    <row r="140" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="17" customHeight="1">
+    <row r="141" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="17" customHeight="1">
+    <row r="142" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="17" customHeight="1">
+    <row r="143" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="17" customHeight="1">
+    <row r="144" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="17" customHeight="1">
+    <row r="145" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="17" customHeight="1">
+    <row r="146" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="17" customHeight="1">
+    <row r="147" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="17" customHeight="1">
+    <row r="148" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="17" customHeight="1">
+    <row r="149" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="17" customHeight="1">
+    <row r="150" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="17" customHeight="1">
+    <row r="151" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="17" customHeight="1">
+    <row r="152" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="17" customHeight="1">
+    <row r="153" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="17" customHeight="1">
+    <row r="154" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="17" customHeight="1">
+    <row r="155" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="17" customHeight="1">
+    <row r="156" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="17" customHeight="1">
+    <row r="157" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="17" customHeight="1">
+    <row r="158" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="17" customHeight="1">
+    <row r="159" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="17" customHeight="1">
+    <row r="160" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="17" customHeight="1">
+    <row r="161" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="17" customHeight="1">
+    <row r="162" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="17" customHeight="1">
+    <row r="163" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="17" customHeight="1">
+    <row r="164" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="17" customHeight="1">
+    <row r="165" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="17" customHeight="1">
+    <row r="166" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="17" customHeight="1">
+    <row r="167" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="17" customHeight="1">
+    <row r="168" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="17" customHeight="1">
+    <row r="169" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="17" customHeight="1">
+    <row r="170" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="17" customHeight="1">
+    <row r="171" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="17" customHeight="1">
+    <row r="172" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="17" customHeight="1">
+    <row r="173" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="17" customHeight="1">
+    <row r="174" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="17" customHeight="1">
+    <row r="175" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="17" customHeight="1">
+    <row r="176" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="17" customHeight="1">
+    <row r="177" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="17" customHeight="1">
+    <row r="178" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="17" customHeight="1">
+    <row r="179" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="17" customHeight="1">
+    <row r="180" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="17" customHeight="1">
+    <row r="181" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="17" customHeight="1">
+    <row r="182" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="17" customHeight="1">
+    <row r="183" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="17" customHeight="1">
+    <row r="184" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="17" customHeight="1">
+    <row r="185" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="17" customHeight="1">
+    <row r="186" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="17" customHeight="1">
+    <row r="187" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="17" customHeight="1">
+    <row r="188" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="17" customHeight="1">
+    <row r="189" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="17" customHeight="1">
+    <row r="190" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="17" customHeight="1">
+    <row r="191" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="17" customHeight="1">
+    <row r="192" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="17" customHeight="1">
+    <row r="193" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="17" customHeight="1">
+    <row r="194" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="17" customHeight="1">
+    <row r="195" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="17" customHeight="1">
+    <row r="196" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="17" customHeight="1">
+    <row r="197" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="17" customHeight="1">
+    <row r="198" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="17" customHeight="1">
+    <row r="199" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="17" customHeight="1">
+    <row r="200" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="17" customHeight="1">
+    <row r="201" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="17" customHeight="1">
+    <row r="202" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="17" customHeight="1">
+    <row r="203" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="17" customHeight="1">
+    <row r="204" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="17" customHeight="1">
+    <row r="205" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="17" customHeight="1">
+    <row r="206" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="17" customHeight="1">
+    <row r="207" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="17" customHeight="1">
+    <row r="208" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="17" customHeight="1">
+    <row r="209" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="17" customHeight="1">
+    <row r="210" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="17" customHeight="1">
+    <row r="211" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="17" customHeight="1">
+    <row r="212" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="17" customHeight="1">
+    <row r="213" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="17" customHeight="1">
+    <row r="214" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="17" customHeight="1">
+    <row r="215" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="17" customHeight="1">
+    <row r="216" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="17" customHeight="1">
+    <row r="217" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="17" customHeight="1">
+    <row r="218" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="17" customHeight="1">
+    <row r="219" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="17" customHeight="1">
+    <row r="220" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="17" customHeight="1">
+    <row r="221" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="17" customHeight="1">
+    <row r="222" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="17" customHeight="1">
+    <row r="223" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="17" customHeight="1">
+    <row r="224" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="17" customHeight="1">
+    <row r="225" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="17" customHeight="1">
+    <row r="226" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="17" customHeight="1">
+    <row r="227" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="17" customHeight="1">
+    <row r="228" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="17" customHeight="1">
+    <row r="229" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="17" customHeight="1">
+    <row r="230" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="17" customHeight="1">
+    <row r="231" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="17" customHeight="1">
+    <row r="232" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="17" customHeight="1">
+    <row r="233" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="17" customHeight="1">
+    <row r="234" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="17" customHeight="1">
+    <row r="235" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="17" customHeight="1">
+    <row r="236" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="17" customHeight="1">
+    <row r="237" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="17" customHeight="1">
+    <row r="238" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="17" customHeight="1">
+    <row r="239" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="17" customHeight="1">
+    <row r="240" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="17" customHeight="1">
+    <row r="241" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="17" customHeight="1">
+    <row r="242" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="17" customHeight="1">
+    <row r="243" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="17" customHeight="1">
+    <row r="244" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="17" customHeight="1">
+    <row r="245" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="17" customHeight="1">
+    <row r="246" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="17" customHeight="1">
+    <row r="247" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="17" customHeight="1">
+    <row r="248" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="17" customHeight="1">
+    <row r="249" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="17" customHeight="1">
+    <row r="250" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="17" customHeight="1">
+    <row r="251" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="17" customHeight="1">
+    <row r="252" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="17" customHeight="1">
+    <row r="253" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="17" customHeight="1">
+    <row r="254" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="17" customHeight="1">
+    <row r="255" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="17" customHeight="1">
+    <row r="256" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="17" customHeight="1">
+    <row r="257" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="17" customHeight="1">
+    <row r="258" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="17" customHeight="1">
+    <row r="259" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="17" customHeight="1">
+    <row r="260" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="17" customHeight="1">
+    <row r="261" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="17" customHeight="1">
+    <row r="262" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="17" customHeight="1">
+    <row r="263" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="17" customHeight="1">
+    <row r="264" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="17" customHeight="1">
+    <row r="265" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="17" customHeight="1">
+    <row r="266" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="17" customHeight="1">
+    <row r="267" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="17" customHeight="1">
+    <row r="268" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="17" customHeight="1">
+    <row r="269" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="17" customHeight="1">
+    <row r="270" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="17" customHeight="1">
+    <row r="271" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="17" customHeight="1">
+    <row r="272" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="17" customHeight="1">
+    <row r="273" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="17" customHeight="1">
+    <row r="274" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="17" customHeight="1">
+    <row r="275" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="17" customHeight="1">
+    <row r="276" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="17" customHeight="1">
+    <row r="277" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="17" customHeight="1">
+    <row r="278" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="17" customHeight="1">
+    <row r="279" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="17" customHeight="1">
+    <row r="280" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="17" customHeight="1">
+    <row r="281" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="17" customHeight="1">
+    <row r="282" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="17" customHeight="1">
+    <row r="283" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="17" customHeight="1">
+    <row r="284" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="17" customHeight="1">
+    <row r="285" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="17" customHeight="1">
+    <row r="286" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="17" customHeight="1">
+    <row r="287" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="17" customHeight="1">
+    <row r="288" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="17" customHeight="1">
+    <row r="289" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="17" customHeight="1">
+    <row r="290" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="17" customHeight="1">
+    <row r="291" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="17" customHeight="1">
+    <row r="292" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="17" customHeight="1">
+    <row r="293" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="17" customHeight="1">
+    <row r="294" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="17" customHeight="1">
+    <row r="295" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="17" customHeight="1">
+    <row r="296" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="17" customHeight="1">
+    <row r="297" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="17" customHeight="1">
+    <row r="298" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="17" customHeight="1">
+    <row r="299" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="17" customHeight="1">
+    <row r="300" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>327</v>
       </c>
@@ -3566,102 +3569,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="17" customHeight="1">
+    <row r="301" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="17" customHeight="1">
+    <row r="302" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A302" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="17" customHeight="1">
+    <row r="303" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="17" customHeight="1">
+    <row r="304" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="17" customHeight="1">
+    <row r="305" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="17" customHeight="1">
+    <row r="306" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="17" customHeight="1">
+    <row r="307" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="17" customHeight="1">
+    <row r="308" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="17" customHeight="1">
+    <row r="309" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="17" customHeight="1">
+    <row r="310" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="17" customHeight="1">
+    <row r="311" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A311" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="17" customHeight="1">
+    <row r="312" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="17" customHeight="1">
+    <row r="313" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="17" customHeight="1">
+    <row r="314" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="17" customHeight="1">
+    <row r="315" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="17" customHeight="1">
+    <row r="316" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="17" customHeight="1">
+    <row r="317" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="17" customHeight="1">
+    <row r="318" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A318" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="17" customHeight="1">
+    <row r="319" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="17" customHeight="1">
+    <row r="320" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>347</v>
       </c>
@@ -3672,107 +3675,161 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="17" customHeight="1">
+    <row r="321" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" ht="17" customHeight="1">
+      <c r="B321" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" ht="17" customHeight="1">
+      <c r="B322" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" ht="17" customHeight="1">
+      <c r="B323" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" ht="17" customHeight="1">
+      <c r="B324" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" ht="17" customHeight="1">
+      <c r="B325" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" ht="17" customHeight="1">
+      <c r="B326" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" ht="17" customHeight="1">
+      <c r="B327" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" ht="17" customHeight="1">
+      <c r="B328" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" ht="17" customHeight="1">
+      <c r="B329" s="6">
+        <v>39829</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="17" customHeight="1">
+    <row r="331" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="17" customHeight="1">
+    <row r="332" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="17" customHeight="1">
+    <row r="333" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="17" customHeight="1">
+    <row r="334" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="17" customHeight="1">
+    <row r="335" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="17" customHeight="1">
+    <row r="336" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="17" customHeight="1">
+    <row r="337" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="17" customHeight="1">
+    <row r="338" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="17" customHeight="1">
+    <row r="339" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="17" customHeight="1">
+    <row r="340" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="17" customHeight="1">
+    <row r="341" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>265</v>
       </c>
@@ -3783,117 +3840,117 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="17" customHeight="1">
+    <row r="342" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="17" customHeight="1">
+    <row r="343" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="17" customHeight="1">
+    <row r="344" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="17" customHeight="1">
+    <row r="345" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="17" customHeight="1">
+    <row r="346" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="17" customHeight="1">
+    <row r="347" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="17" customHeight="1">
+    <row r="348" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="17" customHeight="1">
+    <row r="349" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="17" customHeight="1">
+    <row r="350" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="17" customHeight="1">
+    <row r="351" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A351" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="17" customHeight="1">
+    <row r="352" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="17" customHeight="1">
+    <row r="353" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="17" customHeight="1">
+    <row r="354" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="17" customHeight="1">
+    <row r="355" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="17" customHeight="1">
+    <row r="356" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="17" customHeight="1">
+    <row r="357" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="17" customHeight="1">
+    <row r="358" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="17" customHeight="1">
+    <row r="359" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="17" customHeight="1">
+    <row r="360" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="17" customHeight="1">
+    <row r="361" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="17" customHeight="1">
+    <row r="362" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="17" customHeight="1">
+    <row r="363" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="17" customHeight="1">
+    <row r="364" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>390</v>
       </c>
@@ -3904,287 +3961,287 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="17" customHeight="1">
+    <row r="365" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="17" customHeight="1">
+    <row r="366" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="17" customHeight="1">
+    <row r="367" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A367" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="17" customHeight="1">
+    <row r="368" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A368" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="17" customHeight="1">
+    <row r="369" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A369" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="17" customHeight="1">
+    <row r="370" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A370" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="17" customHeight="1">
+    <row r="371" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A371" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="17" customHeight="1">
+    <row r="372" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A372" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="17" customHeight="1">
+    <row r="373" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A373" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="17" customHeight="1">
+    <row r="374" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A374" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="17" customHeight="1">
+    <row r="375" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A375" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="17" customHeight="1">
+    <row r="376" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A376" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="17" customHeight="1">
+    <row r="377" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A377" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="17" customHeight="1">
+    <row r="378" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A378" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="17" customHeight="1">
+    <row r="379" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A379" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="17" customHeight="1">
+    <row r="380" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A380" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="17" customHeight="1">
+    <row r="381" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A381" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="17" customHeight="1">
+    <row r="382" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A382" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="17" customHeight="1">
+    <row r="383" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A383" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="17" customHeight="1">
+    <row r="384" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A384" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="17" customHeight="1">
+    <row r="385" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A385" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="17" customHeight="1">
+    <row r="386" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A386" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="17" customHeight="1">
+    <row r="387" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A387" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="17" customHeight="1">
+    <row r="388" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A388" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="17" customHeight="1">
+    <row r="389" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A389" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="17" customHeight="1">
+    <row r="390" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A390" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="17" customHeight="1">
+    <row r="391" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A391" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="17" customHeight="1">
+    <row r="392" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A392" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="17" customHeight="1">
+    <row r="393" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A393" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="17" customHeight="1">
+    <row r="394" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A394" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="395" spans="1:1" ht="17" customHeight="1">
+    <row r="395" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A395" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="17" customHeight="1">
+    <row r="396" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A396" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="17" customHeight="1">
+    <row r="397" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A397" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="17" customHeight="1">
+    <row r="398" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A398" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="17" customHeight="1">
+    <row r="399" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A399" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="17" customHeight="1">
+    <row r="400" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A400" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="17" customHeight="1">
+    <row r="401" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A401" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="17" customHeight="1">
+    <row r="402" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A402" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="17" customHeight="1">
+    <row r="403" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A403" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="17" customHeight="1">
+    <row r="404" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A404" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="17" customHeight="1">
+    <row r="405" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A405" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="17" customHeight="1">
+    <row r="406" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A406" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="17" customHeight="1">
+    <row r="407" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A407" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="17" customHeight="1">
+    <row r="408" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A408" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="17" customHeight="1">
+    <row r="409" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A409" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="17" customHeight="1">
+    <row r="410" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A410" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="17" customHeight="1">
+    <row r="411" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A411" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="17" customHeight="1">
+    <row r="412" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A412" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="17" customHeight="1">
+    <row r="413" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A413" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="17" customHeight="1">
+    <row r="414" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A414" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="17" customHeight="1">
+    <row r="415" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A415" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="17" customHeight="1">
+    <row r="416" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A416" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="17" customHeight="1">
+    <row r="417" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A417" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="17" customHeight="1">
+    <row r="418" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A418" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="17" customHeight="1">
+    <row r="419" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A419" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="17" customHeight="1">
+    <row r="420" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A420" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="17" customHeight="1">
+    <row r="421" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A421" s="1" t="s">
         <v>450</v>
       </c>
@@ -4195,77 +4252,77 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="17" customHeight="1">
+    <row r="422" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A422" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="17" customHeight="1">
+    <row r="423" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A423" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="17" customHeight="1">
+    <row r="424" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A424" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="17" customHeight="1">
+    <row r="425" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A425" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="17" customHeight="1">
+    <row r="426" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A426" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="17" customHeight="1">
+    <row r="427" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A427" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="17" customHeight="1">
+    <row r="428" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A428" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="17" customHeight="1">
+    <row r="429" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A429" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="17" customHeight="1">
+    <row r="430" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A430" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="17" customHeight="1">
+    <row r="431" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A431" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="17" customHeight="1">
+    <row r="432" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A432" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="17" customHeight="1">
+    <row r="433" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A433" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="17" customHeight="1">
+    <row r="434" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A434" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="17" customHeight="1">
+    <row r="435" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A435" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="17" customHeight="1">
+    <row r="436" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A436" s="1" t="s">
         <v>356</v>
       </c>
@@ -4276,7 +4333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="17" customHeight="1">
+    <row r="437" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A437" s="1" t="s">
         <v>357</v>
       </c>
@@ -4287,7 +4344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="17" customHeight="1">
+    <row r="438" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A438" s="1" t="s">
         <v>358</v>
       </c>
@@ -4298,7 +4355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="17" customHeight="1">
+    <row r="439" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A439" s="1" t="s">
         <v>359</v>
       </c>
@@ -4309,7 +4366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="17" customHeight="1">
+    <row r="440" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A440" s="1" t="s">
         <v>469</v>
       </c>
@@ -4320,7 +4377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="17" customHeight="1">
+    <row r="441" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A441" s="1" t="s">
         <v>470</v>
       </c>
@@ -4331,7 +4388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="17" customHeight="1">
+    <row r="442" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A442" s="1" t="s">
         <v>471</v>
       </c>
@@ -4342,7 +4399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="17" customHeight="1">
+    <row r="443" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A443" s="1" t="s">
         <v>472</v>
       </c>
@@ -4353,52 +4410,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="17" customHeight="1">
+    <row r="444" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A444" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="17" customHeight="1">
+    <row r="445" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A445" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="17" customHeight="1">
+    <row r="446" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A446" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="17" customHeight="1">
+    <row r="447" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A447" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="17" customHeight="1">
+    <row r="448" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A448" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="17" customHeight="1">
+    <row r="449" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A449" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="17" customHeight="1">
+    <row r="450" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A450" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="17" customHeight="1">
+    <row r="451" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A451" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="17" customHeight="1">
+    <row r="452" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A452" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="17" customHeight="1">
+    <row r="453" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A453" s="1" t="s">
         <v>484</v>
       </c>
@@ -4409,328 +4466,328 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="17" customHeight="1">
+    <row r="454" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A454" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="17" customHeight="1">
+    <row r="455" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A455" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="17" customHeight="1">
+    <row r="456" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A456" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="17" customHeight="1">
+    <row r="457" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A457" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="17" customHeight="1">
+    <row r="458" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A458" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="17" customHeight="1">
+    <row r="459" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A459" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="17" customHeight="1">
+    <row r="460" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A460" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="17" customHeight="1">
+    <row r="461" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A461" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="17" customHeight="1">
+    <row r="462" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A462" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="17" customHeight="1">
+    <row r="463" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A463" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="17" customHeight="1">
+    <row r="464" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A464" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="465" spans="1:1" ht="17" customHeight="1">
+    <row r="465" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A465" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="466" spans="1:1" ht="17" customHeight="1">
+    <row r="466" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A466" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="467" spans="1:1" ht="17" customHeight="1">
+    <row r="467" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A467" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="468" spans="1:1" ht="17" customHeight="1">
+    <row r="468" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A468" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="469" spans="1:1" ht="17" customHeight="1">
+    <row r="469" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A469" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="470" spans="1:1" ht="17" customHeight="1">
+    <row r="470" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A470" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="471" spans="1:1" ht="17" customHeight="1">
+    <row r="471" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A471" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="472" spans="1:1" ht="17" customHeight="1">
+    <row r="472" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="473" spans="1:1" ht="17" customHeight="1">
+    <row r="473" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A473" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="474" spans="1:1" ht="17" customHeight="1">
+    <row r="474" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A474" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="475" spans="1:1" ht="17" customHeight="1">
+    <row r="475" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A475" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="476" spans="1:1" ht="17" customHeight="1">
+    <row r="476" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A476" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="477" spans="1:1" ht="17" customHeight="1">
+    <row r="477" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A477" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="478" spans="1:1" ht="17" customHeight="1">
+    <row r="478" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A478" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="479" spans="1:1" ht="17" customHeight="1">
+    <row r="479" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A479" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="480" spans="1:1" ht="17" customHeight="1">
+    <row r="480" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A480" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="481" spans="1:1" ht="17" customHeight="1">
+    <row r="481" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A481" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="482" spans="1:1" ht="17" customHeight="1">
+    <row r="482" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A482" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="483" spans="1:1" ht="17" customHeight="1">
+    <row r="483" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A483" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="484" spans="1:1" ht="17" customHeight="1">
+    <row r="484" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A484" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="485" spans="1:1" ht="17" customHeight="1">
+    <row r="485" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A485" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="486" spans="1:1" ht="17" customHeight="1">
+    <row r="486" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A486" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="487" spans="1:1" ht="17" customHeight="1">
+    <row r="487" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A487" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="488" spans="1:1" ht="17" customHeight="1">
+    <row r="488" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A488" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="489" spans="1:1" ht="17" customHeight="1">
+    <row r="489" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A489" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="490" spans="1:1" ht="17" customHeight="1">
+    <row r="490" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A490" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="491" spans="1:1" ht="17" customHeight="1">
+    <row r="491" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A491" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="492" spans="1:1" ht="17" customHeight="1">
+    <row r="492" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A492" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="493" spans="1:1" ht="17" customHeight="1">
+    <row r="493" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A493" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="494" spans="1:1" ht="17" customHeight="1">
+    <row r="494" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A494" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="495" spans="1:1" ht="17" customHeight="1">
+    <row r="495" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A495" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="496" spans="1:1" ht="17" customHeight="1">
+    <row r="496" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A496" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:1" ht="17" customHeight="1">
+    <row r="497" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A497" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="498" spans="1:1" ht="17" customHeight="1">
+    <row r="498" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A498" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="499" spans="1:1" ht="17" customHeight="1">
+    <row r="499" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A499" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="500" spans="1:1" ht="17" customHeight="1">
+    <row r="500" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A500" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="501" spans="1:1" ht="17" customHeight="1">
+    <row r="501" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A501" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="502" spans="1:1" ht="17" customHeight="1">
+    <row r="502" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A502" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="503" spans="1:1" ht="17" customHeight="1">
+    <row r="503" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A503" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="504" spans="1:1" ht="17" customHeight="1">
+    <row r="504" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A504" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="505" spans="1:1" ht="17" customHeight="1">
+    <row r="505" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A505" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="506" spans="1:1" ht="17" customHeight="1">
+    <row r="506" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A506" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="507" spans="1:1" ht="17" customHeight="1">
+    <row r="507" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A507" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="508" spans="1:1" ht="17" customHeight="1">
+    <row r="508" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A508" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="509" spans="1:1" ht="17" customHeight="1">
+    <row r="509" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A509" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="510" spans="1:1" ht="17" customHeight="1">
+    <row r="510" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A510" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="511" spans="1:1" ht="17" customHeight="1">
+    <row r="511" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A511" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="512" spans="1:1" ht="17" customHeight="1">
+    <row r="512" spans="1:1" ht="17.100000000000001" customHeight="1">
       <c r="A512" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="17" customHeight="1">
+    <row r="513" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A513" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="17" customHeight="1">
+    <row r="514" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A514" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="17" customHeight="1">
+    <row r="515" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A515" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="17" customHeight="1">
+    <row r="516" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A516" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="17" customHeight="1" thickBot="1">
+    <row r="517" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A517" s="7" t="s">
         <v>468</v>
       </c>
       <c r="B517" s="8">
         <f>(COUNTA(B2:B516))/515</f>
-        <v>2.7184466019417475E-2</v>
+        <v>4.4660194174757278E-2</v>
       </c>
       <c r="C517" s="9"/>
       <c r="D517" s="8">
@@ -4745,7 +4802,6 @@
       <c r="G517" s="10"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="3">
     <mergeCell ref="B517:C517"/>
     <mergeCell ref="D517:E517"/>
@@ -4753,7 +4809,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
